--- a/BackTest/2019-11-02 BackTest CRO.xlsx
+++ b/BackTest/2019-11-02 BackTest CRO.xlsx
@@ -961,7 +961,9 @@
       <c r="J12" t="n">
         <v>4.099999999999994</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-22.22222222222218</v>
+      </c>
       <c r="L12" t="n">
         <v>46.87</v>
       </c>
@@ -1012,7 +1014,9 @@
       <c r="J13" t="n">
         <v>4.499999999999993</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-29.41176470588243</v>
+      </c>
       <c r="L13" t="n">
         <v>46.83000000000001</v>
       </c>
@@ -1063,7 +1067,9 @@
       <c r="J14" t="n">
         <v>5.29999999999999</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-4.761904761904842</v>
+      </c>
       <c r="L14" t="n">
         <v>46.81</v>
       </c>
@@ -1114,7 +1120,9 @@
       <c r="J15" t="n">
         <v>5.29999999999999</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-25.71428571428573</v>
+      </c>
       <c r="L15" t="n">
         <v>46.79</v>
       </c>
@@ -1165,7 +1173,9 @@
       <c r="J16" t="n">
         <v>5.399999999999991</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-7.142857142857252</v>
+      </c>
       <c r="L16" t="n">
         <v>46.68999999999999</v>
       </c>
@@ -1216,7 +1226,9 @@
       <c r="J17" t="n">
         <v>5.699999999999989</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-16.12903225806455</v>
+      </c>
       <c r="L17" t="n">
         <v>46.63999999999999</v>
       </c>
@@ -1267,7 +1279,9 @@
       <c r="J18" t="n">
         <v>5.79999999999999</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-13.33333333333332</v>
+      </c>
       <c r="L18" t="n">
         <v>46.57999999999998</v>
       </c>
@@ -1318,7 +1332,9 @@
       <c r="J19" t="n">
         <v>5.79999999999999</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-17.24137931034488</v>
+      </c>
       <c r="L19" t="n">
         <v>46.53999999999998</v>
       </c>
@@ -1369,7 +1385,9 @@
       <c r="J20" t="n">
         <v>5.79999999999999</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L20" t="n">
         <v>46.48999999999998</v>
       </c>
@@ -1420,7 +1438,9 @@
       <c r="J21" t="n">
         <v>6.099999999999994</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>50</v>
+      </c>
       <c r="L21" t="n">
         <v>46.47999999999998</v>
       </c>
@@ -1473,7 +1493,9 @@
       <c r="J22" t="n">
         <v>6.5</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>9.999999999999751</v>
+      </c>
       <c r="L22" t="n">
         <v>46.53999999999998</v>
       </c>
@@ -1527,7 +1549,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>4.615384615384572</v>
+        <v>-5.88235294117652</v>
       </c>
       <c r="L23" t="n">
         <v>46.60999999999998</v>
@@ -1582,7 +1604,7 @@
         <v>7.200000000000003</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.639344262295105</v>
+        <v>5.263157894736882</v>
       </c>
       <c r="L24" t="n">
         <v>46.61999999999998</v>
@@ -1637,7 +1659,7 @@
         <v>9.300000000000004</v>
       </c>
       <c r="K25" t="n">
-        <v>24.39024390243901</v>
+        <v>58.97435897435889</v>
       </c>
       <c r="L25" t="n">
         <v>46.83999999999999</v>
@@ -1686,7 +1708,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>1.149425287356337</v>
+        <v>29.16666666666653</v>
       </c>
       <c r="L26" t="n">
         <v>46.94999999999998</v>
@@ -1735,7 +1757,7 @@
         <v>12.20000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>27.0833333333333</v>
+        <v>49.99999999999989</v>
       </c>
       <c r="L27" t="n">
         <v>47.25999999999998</v>
@@ -1784,7 +1806,7 @@
         <v>12.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>18.44660194174753</v>
+        <v>35.21126760563369</v>
       </c>
       <c r="L28" t="n">
         <v>47.50999999999998</v>
@@ -1833,7 +1855,7 @@
         <v>13.80000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>10.90909090909092</v>
+        <v>19.99999999999996</v>
       </c>
       <c r="L29" t="n">
         <v>47.66999999999998</v>
@@ -1882,7 +1904,7 @@
         <v>15.00000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>19.00826446280993</v>
+        <v>28.08988764044937</v>
       </c>
       <c r="L30" t="n">
         <v>47.94999999999999</v>
@@ -1931,7 +1953,7 @@
         <v>15.50000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>23.20000000000002</v>
+        <v>37.77777777777779</v>
       </c>
       <c r="L31" t="n">
         <v>48.24999999999999</v>
@@ -1982,7 +2004,7 @@
         <v>15.80000000000002</v>
       </c>
       <c r="K32" t="n">
-        <v>31.62393162393152</v>
+        <v>29.5454545454545</v>
       </c>
       <c r="L32" t="n">
         <v>48.56</v>
@@ -2033,7 +2055,7 @@
         <v>16.20000000000002</v>
       </c>
       <c r="K33" t="n">
-        <v>24.78632478632472</v>
+        <v>22.22222222222219</v>
       </c>
       <c r="L33" t="n">
         <v>48.77999999999999</v>
@@ -2084,7 +2106,7 @@
         <v>16.90000000000002</v>
       </c>
       <c r="K34" t="n">
-        <v>12.06896551724133</v>
+        <v>-10.52631578947372</v>
       </c>
       <c r="L34" t="n">
         <v>48.90999999999999</v>
@@ -2135,7 +2157,7 @@
         <v>18.60000000000002</v>
       </c>
       <c r="K35" t="n">
-        <v>-2.255639097744335</v>
+        <v>-16.04938271604933</v>
       </c>
       <c r="L35" t="n">
         <v>48.65999999999999</v>
@@ -2186,7 +2208,7 @@
         <v>19.10000000000002</v>
       </c>
       <c r="K36" t="n">
-        <v>2.189781021897837</v>
+        <v>-36.23188405797099</v>
       </c>
       <c r="L36" t="n">
         <v>48.58</v>
@@ -2237,7 +2259,7 @@
         <v>19.30000000000002</v>
       </c>
       <c r="K37" t="n">
-        <v>2.941176470588218</v>
+        <v>-31.24999999999997</v>
       </c>
       <c r="L37" t="n">
         <v>48.30999999999999</v>
@@ -2288,7 +2310,7 @@
         <v>19.40000000000002</v>
       </c>
       <c r="K38" t="n">
-        <v>2.941176470588218</v>
+        <v>-21.42857142857145</v>
       </c>
       <c r="L38" t="n">
         <v>48.09999999999999</v>
@@ -2339,7 +2361,7 @@
         <v>19.50000000000002</v>
       </c>
       <c r="K39" t="n">
-        <v>3.649635036496342</v>
+        <v>-51.11111111111113</v>
       </c>
       <c r="L39" t="n">
         <v>47.98999999999999</v>
@@ -2390,7 +2412,7 @@
         <v>20.10000000000002</v>
       </c>
       <c r="K40" t="n">
-        <v>7.692307692307685</v>
+        <v>-47.82608695652171</v>
       </c>
       <c r="L40" t="n">
         <v>47.81999999999999</v>
@@ -2441,7 +2463,7 @@
         <v>20.30000000000003</v>
       </c>
       <c r="K41" t="n">
-        <v>4.225352112676007</v>
+        <v>-46.66666666666662</v>
       </c>
       <c r="L41" t="n">
         <v>47.57999999999999</v>
@@ -2492,7 +2514,7 @@
         <v>20.60000000000002</v>
       </c>
       <c r="K42" t="n">
-        <v>4.964539007092211</v>
+        <v>-45.4545454545454</v>
       </c>
       <c r="L42" t="n">
         <v>47.34</v>
@@ -2543,7 +2565,7 @@
         <v>20.70000000000002</v>
       </c>
       <c r="K43" t="n">
-        <v>0.7299270072992792</v>
+        <v>-36.84210526315781</v>
       </c>
       <c r="L43" t="n">
         <v>47.13</v>
@@ -2594,7 +2616,7 @@
         <v>20.90000000000002</v>
       </c>
       <c r="K44" t="n">
-        <v>-2.189781021897787</v>
+        <v>4.347826086956576</v>
       </c>
       <c r="L44" t="n">
         <v>46.97</v>
@@ -2645,7 +2667,7 @@
         <v>21.10000000000002</v>
       </c>
       <c r="K45" t="n">
-        <v>-22.03389830508472</v>
+        <v>-29.99999999999996</v>
       </c>
       <c r="L45" t="n">
         <v>46.96</v>
@@ -2696,7 +2718,7 @@
         <v>21.30000000000003</v>
       </c>
       <c r="K46" t="n">
-        <v>-11.11111111111105</v>
+        <v>-9.999999999999751</v>
       </c>
       <c r="L46" t="n">
         <v>46.92</v>
@@ -2747,7 +2769,7 @@
         <v>22.20000000000003</v>
       </c>
       <c r="K47" t="n">
-        <v>-37.99999999999996</v>
+        <v>-35.71428571428557</v>
       </c>
       <c r="L47" t="n">
         <v>46.81</v>
@@ -2804,7 +2826,7 @@
         <v>23.40000000000003</v>
       </c>
       <c r="K48" t="n">
-        <v>-18.09523809523805</v>
+        <v>2.564102564102592</v>
       </c>
       <c r="L48" t="n">
         <v>46.83</v>
@@ -2863,7 +2885,7 @@
         <v>23.80000000000003</v>
       </c>
       <c r="K49" t="n">
-        <v>-13.99999999999996</v>
+        <v>-24.32432432432422</v>
       </c>
       <c r="L49" t="n">
         <v>46.8</v>
@@ -2926,7 +2948,7 @@
         <v>23.80000000000003</v>
       </c>
       <c r="K50" t="n">
-        <v>-29.5454545454545</v>
+        <v>-19.99999999999984</v>
       </c>
       <c r="L50" t="n">
         <v>46.71</v>
@@ -2987,7 +3009,7 @@
         <v>23.80000000000003</v>
       </c>
       <c r="K51" t="n">
-        <v>-37.34939759036138</v>
+        <v>-12.49999999999992</v>
       </c>
       <c r="L51" t="n">
         <v>46.64</v>
@@ -3050,7 +3072,7 @@
         <v>24.20000000000003</v>
       </c>
       <c r="K52" t="n">
-        <v>-28.57142857142851</v>
+        <v>2.857142857142892</v>
       </c>
       <c r="L52" t="n">
         <v>46.64000000000001</v>
@@ -3111,7 +3133,7 @@
         <v>25.40000000000003</v>
       </c>
       <c r="K53" t="n">
-        <v>-34.78260869565214</v>
+        <v>-20.00000000000006</v>
       </c>
       <c r="L53" t="n">
         <v>46.53000000000001</v>
@@ -3172,7 +3194,7 @@
         <v>26.30000000000004</v>
       </c>
       <c r="K54" t="n">
-        <v>-17.02127659574458</v>
+        <v>3.846153846153888</v>
       </c>
       <c r="L54" t="n">
         <v>46.53000000000002</v>
@@ -3233,7 +3255,7 @@
         <v>26.40000000000003</v>
       </c>
       <c r="K55" t="n">
-        <v>2.564102564102503</v>
+        <v>1.960784313725375</v>
       </c>
       <c r="L55" t="n">
         <v>46.56000000000002</v>
@@ -3294,7 +3316,7 @@
         <v>27.30000000000003</v>
       </c>
       <c r="K56" t="n">
-        <v>-14.63414634146342</v>
+        <v>1.960784313725518</v>
       </c>
       <c r="L56" t="n">
         <v>46.48000000000001</v>
@@ -3355,7 +3377,7 @@
         <v>27.60000000000004</v>
       </c>
       <c r="K57" t="n">
-        <v>-8.433734939758967</v>
+        <v>-19.04761904761897</v>
       </c>
       <c r="L57" t="n">
         <v>46.52000000000001</v>
@@ -3416,7 +3438,7 @@
         <v>27.60000000000004</v>
       </c>
       <c r="K58" t="n">
-        <v>-7.317073170731622</v>
+        <v>-10.52631578947364</v>
       </c>
       <c r="L58" t="n">
         <v>46.44000000000001</v>
@@ -3473,7 +3495,7 @@
         <v>28.10000000000004</v>
       </c>
       <c r="K59" t="n">
-        <v>-13.95348837209295</v>
+        <v>-20.93023255813948</v>
       </c>
       <c r="L59" t="n">
         <v>46.35000000000001</v>
@@ -3530,7 +3552,7 @@
         <v>28.80000000000004</v>
       </c>
       <c r="K60" t="n">
-        <v>-28.73563218390799</v>
+        <v>-31.99999999999999</v>
       </c>
       <c r="L60" t="n">
         <v>46.19</v>
@@ -3587,7 +3609,7 @@
         <v>28.90000000000004</v>
       </c>
       <c r="K61" t="n">
-        <v>-25.58139534883712</v>
+        <v>-40.4255319148935</v>
       </c>
       <c r="L61" t="n">
         <v>46.04000000000001</v>
@@ -3644,7 +3666,7 @@
         <v>28.90000000000004</v>
       </c>
       <c r="K62" t="n">
-        <v>-22.89156626506017</v>
+        <v>-19.99999999999984</v>
       </c>
       <c r="L62" t="n">
         <v>45.85000000000001</v>
@@ -3701,7 +3723,7 @@
         <v>28.90000000000004</v>
       </c>
       <c r="K63" t="n">
-        <v>-21.95121951219504</v>
+        <v>-61.53846153846156</v>
       </c>
       <c r="L63" t="n">
         <v>45.78000000000001</v>
@@ -3758,7 +3780,7 @@
         <v>29.20000000000004</v>
       </c>
       <c r="K64" t="n">
-        <v>-15.66265060240966</v>
+        <v>-49.99999999999987</v>
       </c>
       <c r="L64" t="n">
         <v>45.65000000000001</v>
@@ -3815,7 +3837,7 @@
         <v>29.70000000000004</v>
       </c>
       <c r="K65" t="n">
-        <v>-18.60465116279068</v>
+        <v>-41.66666666666657</v>
       </c>
       <c r="L65" t="n">
         <v>45.46</v>
@@ -3872,7 +3894,7 @@
         <v>30.00000000000004</v>
       </c>
       <c r="K66" t="n">
-        <v>-17.24137931034479</v>
+        <v>-41.66666666666657</v>
       </c>
       <c r="L66" t="n">
         <v>45.39</v>
@@ -3923,7 +3945,7 @@
         <v>30.20000000000004</v>
       </c>
       <c r="K67" t="n">
-        <v>-4.999999999999978</v>
+        <v>-30.76923076923092</v>
       </c>
       <c r="L67" t="n">
         <v>45.31</v>
@@ -3974,7 +3996,7 @@
         <v>31.00000000000004</v>
       </c>
       <c r="K68" t="n">
-        <v>-10.52631578947364</v>
+        <v>17.24137931034479</v>
       </c>
       <c r="L68" t="n">
         <v>45.31</v>
@@ -4025,7 +4047,7 @@
         <v>31.60000000000004</v>
       </c>
       <c r="K69" t="n">
-        <v>-12.8205128205128</v>
+        <v>21.42857142857145</v>
       </c>
       <c r="L69" t="n">
         <v>45.3</v>
@@ -4076,7 +4098,7 @@
         <v>31.90000000000005</v>
       </c>
       <c r="K70" t="n">
-        <v>-16.0493827160494</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L70" t="n">
         <v>45.33000000000001</v>
@@ -4127,7 +4149,7 @@
         <v>32.10000000000004</v>
       </c>
       <c r="K71" t="n">
-        <v>-18.07228915662648</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>45.33000000000001</v>
@@ -4178,7 +4200,7 @@
         <v>32.30000000000005</v>
       </c>
       <c r="K72" t="n">
-        <v>-25.92592592592589</v>
+        <v>-5.882352941176544</v>
       </c>
       <c r="L72" t="n">
         <v>45.31</v>
@@ -4229,7 +4251,7 @@
         <v>33.00000000000005</v>
       </c>
       <c r="K73" t="n">
-        <v>-2.63157894736836</v>
+        <v>5.263157894736901</v>
       </c>
       <c r="L73" t="n">
         <v>45.36</v>
@@ -4280,7 +4302,7 @@
         <v>33.40000000000005</v>
       </c>
       <c r="K74" t="n">
-        <v>-21.12676056338026</v>
+        <v>8.108108108108201</v>
       </c>
       <c r="L74" t="n">
         <v>45.34</v>
@@ -4331,7 +4353,7 @@
         <v>33.90000000000005</v>
       </c>
       <c r="K75" t="n">
-        <v>-14.66666666666656</v>
+        <v>12.8205128205128</v>
       </c>
       <c r="L75" t="n">
         <v>45.42</v>
@@ -4382,7 +4404,7 @@
         <v>34.10000000000005</v>
       </c>
       <c r="K76" t="n">
-        <v>-5.882352941176434</v>
+        <v>2.564102564102592</v>
       </c>
       <c r="L76" t="n">
         <v>45.45</v>
@@ -4433,7 +4455,7 @@
         <v>34.20000000000005</v>
       </c>
       <c r="K77" t="n">
-        <v>-12.12121212121216</v>
+        <v>-25.00000000000006</v>
       </c>
       <c r="L77" t="n">
         <v>45.45</v>
@@ -4484,7 +4506,7 @@
         <v>34.20000000000005</v>
       </c>
       <c r="K78" t="n">
-        <v>-12.12121212121216</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L78" t="n">
         <v>45.37</v>
@@ -4535,7 +4557,7 @@
         <v>34.30000000000005</v>
       </c>
       <c r="K79" t="n">
-        <v>-6.45161290322588</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>45.34</v>
@@ -4586,7 +4608,7 @@
         <v>34.40000000000005</v>
       </c>
       <c r="K80" t="n">
-        <v>3.571428571428617</v>
+        <v>4.347826086956576</v>
       </c>
       <c r="L80" t="n">
         <v>45.33</v>
@@ -4637,7 +4659,7 @@
         <v>34.40000000000005</v>
       </c>
       <c r="K81" t="n">
-        <v>1.818181818181842</v>
+        <v>14.28571428571448</v>
       </c>
       <c r="L81" t="n">
         <v>45.34</v>
@@ -4688,7 +4710,7 @@
         <v>34.50000000000005</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L82" t="n">
         <v>45.36</v>
@@ -4739,7 +4761,7 @@
         <v>34.60000000000005</v>
       </c>
       <c r="K83" t="n">
-        <v>1.754385964912302</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>45.32</v>
@@ -4790,7 +4812,7 @@
         <v>34.70000000000005</v>
       </c>
       <c r="K84" t="n">
-        <v>-5.454545454545389</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L84" t="n">
         <v>45.31</v>
@@ -4841,7 +4863,7 @@
         <v>34.70000000000005</v>
       </c>
       <c r="K85" t="n">
-        <v>4.000000000000045</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L85" t="n">
         <v>45.25000000000001</v>
@@ -4892,7 +4914,7 @@
         <v>34.80000000000005</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L86" t="n">
         <v>45.22000000000001</v>
@@ -4943,7 +4965,7 @@
         <v>34.80000000000005</v>
       </c>
       <c r="K87" t="n">
-        <v>-4.347826086956414</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L87" t="n">
         <v>45.2</v>

--- a/BackTest/2019-11-02 BackTest CRO.xlsx
+++ b/BackTest/2019-11-02 BackTest CRO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -944,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2379,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2449,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2484,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2659,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2694,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2764,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2842,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2869,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2877,6 +2951,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2912,6 +2987,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2939,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -2947,6 +3023,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2982,6 +3059,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3009,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3017,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3044,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3052,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3079,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3087,6 +3167,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3114,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3122,6 +3203,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3149,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
         <v>47</v>
@@ -3163,6 +3245,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3202,6 +3285,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3241,6 +3325,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3282,6 +3367,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3321,6 +3407,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3362,6 +3449,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3403,6 +3491,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3430,7 +3519,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
         <v>46.8</v>
@@ -3444,6 +3533,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3485,6 +3575,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3524,6 +3615,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3563,6 +3655,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3602,6 +3695,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3641,6 +3735,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3680,6 +3775,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3719,6 +3815,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3760,6 +3857,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3801,6 +3899,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,6 +3941,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3883,6 +3983,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3924,6 +4025,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3963,6 +4065,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4004,6 +4107,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4045,6 +4149,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4086,6 +4191,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4127,6 +4233,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4168,6 +4275,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4207,6 +4315,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4246,6 +4355,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-02 BackTest CRO.xlsx
+++ b/BackTest/2019-11-02 BackTest CRO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:N135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>45.7</v>
+        <v>45</v>
       </c>
       <c r="C2" t="n">
-        <v>44.7</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>45.7</v>
+        <v>45</v>
       </c>
       <c r="E2" t="n">
-        <v>44.7</v>
+        <v>45</v>
       </c>
       <c r="F2" t="n">
-        <v>58056.70827134</v>
+        <v>1120</v>
       </c>
       <c r="G2" t="n">
-        <v>72068.13975731996</v>
+        <v>183161.3632</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>44.7</v>
+        <v>45.1</v>
       </c>
       <c r="C3" t="n">
-        <v>44.7</v>
+        <v>45.1</v>
       </c>
       <c r="D3" t="n">
-        <v>44.7</v>
+        <v>45.1</v>
       </c>
       <c r="E3" t="n">
-        <v>44.7</v>
+        <v>45.1</v>
       </c>
       <c r="F3" t="n">
-        <v>3852</v>
+        <v>951.2195</v>
       </c>
       <c r="G3" t="n">
-        <v>72068.13975731996</v>
+        <v>184112.5827</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>45</v>
+      </c>
+      <c r="K3" t="n">
+        <v>45</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>44.7</v>
+        <v>45</v>
       </c>
       <c r="C4" t="n">
-        <v>44.7</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
-        <v>44.7</v>
+        <v>45</v>
       </c>
       <c r="E4" t="n">
-        <v>44.7</v>
+        <v>45</v>
       </c>
       <c r="F4" t="n">
-        <v>2770</v>
+        <v>852.9476</v>
       </c>
       <c r="G4" t="n">
-        <v>72068.13975731996</v>
+        <v>183259.6351</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>45</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44.7</v>
+        <v>45.1</v>
       </c>
       <c r="C5" t="n">
-        <v>44.7</v>
+        <v>45.1</v>
       </c>
       <c r="D5" t="n">
-        <v>44.7</v>
+        <v>45.1</v>
       </c>
       <c r="E5" t="n">
-        <v>44.7</v>
+        <v>45.1</v>
       </c>
       <c r="F5" t="n">
-        <v>3564.0826</v>
+        <v>5000</v>
       </c>
       <c r="G5" t="n">
-        <v>72068.13975731996</v>
+        <v>188259.6351</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>45</v>
+      </c>
+      <c r="K5" t="n">
+        <v>45</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +602,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44.7</v>
+        <v>45.3</v>
       </c>
       <c r="C6" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="D6" t="n">
-        <v>44.7</v>
+        <v>45.8</v>
       </c>
       <c r="E6" t="n">
         <v>44.7</v>
       </c>
       <c r="F6" t="n">
-        <v>2679</v>
+        <v>33961.9065</v>
       </c>
       <c r="G6" t="n">
-        <v>72068.13975731996</v>
+        <v>154297.7286</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>45</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +646,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>44.7</v>
+        <v>45.8</v>
       </c>
       <c r="C7" t="n">
-        <v>44.7</v>
+        <v>45.8</v>
       </c>
       <c r="D7" t="n">
-        <v>44.7</v>
+        <v>45.8</v>
       </c>
       <c r="E7" t="n">
-        <v>44.7</v>
+        <v>45.8</v>
       </c>
       <c r="F7" t="n">
-        <v>690</v>
+        <v>1405.41</v>
       </c>
       <c r="G7" t="n">
-        <v>72068.13975731996</v>
+        <v>155703.1386</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>45</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +690,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>44.7</v>
+        <v>45.8</v>
       </c>
       <c r="C8" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="D8" t="n">
-        <v>44.7</v>
+        <v>45.8</v>
       </c>
       <c r="E8" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="F8" t="n">
-        <v>7158.219</v>
+        <v>17220.6411</v>
       </c>
       <c r="G8" t="n">
-        <v>72068.13975731996</v>
+        <v>138482.4975</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>45</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +734,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>44.6</v>
+        <v>45</v>
       </c>
       <c r="C9" t="n">
-        <v>44.6</v>
+        <v>45</v>
       </c>
       <c r="D9" t="n">
-        <v>44.7</v>
+        <v>45</v>
       </c>
       <c r="E9" t="n">
-        <v>44.6</v>
+        <v>45</v>
       </c>
       <c r="F9" t="n">
-        <v>11184.1677</v>
+        <v>890.7511</v>
       </c>
       <c r="G9" t="n">
-        <v>60883.97205731997</v>
+        <v>139373.2486</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>45</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,32 +778,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>44.5</v>
+        <v>45.1</v>
       </c>
       <c r="C10" t="n">
-        <v>44.4</v>
+        <v>45.1</v>
       </c>
       <c r="D10" t="n">
-        <v>44.5</v>
+        <v>45.1</v>
       </c>
       <c r="E10" t="n">
-        <v>44.4</v>
+        <v>45.1</v>
       </c>
       <c r="F10" t="n">
-        <v>20457.6477</v>
+        <v>1080</v>
       </c>
       <c r="G10" t="n">
-        <v>40426.32435731997</v>
+        <v>140453.2486</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>45</v>
+      </c>
+      <c r="K10" t="n">
+        <v>45</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +822,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>44.5</v>
+        <v>45</v>
       </c>
       <c r="C11" t="n">
-        <v>44.4</v>
+        <v>45</v>
       </c>
       <c r="D11" t="n">
-        <v>44.5</v>
+        <v>45</v>
       </c>
       <c r="E11" t="n">
-        <v>44.4</v>
+        <v>45</v>
       </c>
       <c r="F11" t="n">
-        <v>2672.1932</v>
+        <v>1405.41</v>
       </c>
       <c r="G11" t="n">
-        <v>40426.32435731997</v>
+        <v>139047.8386</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>45</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +866,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>44.4</v>
+        <v>45</v>
       </c>
       <c r="C12" t="n">
-        <v>44.4</v>
+        <v>45</v>
       </c>
       <c r="D12" t="n">
-        <v>44.4</v>
+        <v>45</v>
       </c>
       <c r="E12" t="n">
-        <v>44.4</v>
+        <v>45</v>
       </c>
       <c r="F12" t="n">
-        <v>2672.1932</v>
+        <v>816.8122</v>
       </c>
       <c r="G12" t="n">
-        <v>40426.32435731997</v>
+        <v>139047.8386</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>45</v>
+      </c>
+      <c r="K12" t="n">
+        <v>45</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,7 +910,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>44.7</v>
+        <v>44.9</v>
       </c>
       <c r="C13" t="n">
         <v>44.9</v>
@@ -843,23 +919,31 @@
         <v>44.9</v>
       </c>
       <c r="E13" t="n">
-        <v>44.7</v>
+        <v>44.9</v>
       </c>
       <c r="F13" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>45426.32435731997</v>
+        <v>139037.8386</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>45</v>
+      </c>
+      <c r="K13" t="n">
+        <v>45</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +954,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>45.7</v>
+        <v>44.7</v>
       </c>
       <c r="C14" t="n">
-        <v>45.7</v>
+        <v>44.7</v>
       </c>
       <c r="D14" t="n">
-        <v>45.7</v>
+        <v>44.7</v>
       </c>
       <c r="E14" t="n">
-        <v>45.7</v>
+        <v>44.7</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>9177.143400000001</v>
       </c>
       <c r="G14" t="n">
-        <v>45436.32435731997</v>
+        <v>129860.6952</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="K14" t="n">
+        <v>45</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,32 +998,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>45.7</v>
+        <v>44.9</v>
       </c>
       <c r="C15" t="n">
-        <v>45.7</v>
+        <v>45.8</v>
       </c>
       <c r="D15" t="n">
-        <v>45.7</v>
+        <v>45.8</v>
       </c>
       <c r="E15" t="n">
-        <v>45.7</v>
+        <v>44.9</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="G15" t="n">
-        <v>45436.32435731997</v>
+        <v>131860.6952</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>45</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,32 +1042,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>44.5</v>
+        <v>45.6</v>
       </c>
       <c r="C16" t="n">
-        <v>44.5</v>
+        <v>45.6</v>
       </c>
       <c r="D16" t="n">
-        <v>44.5</v>
+        <v>45.6</v>
       </c>
       <c r="E16" t="n">
-        <v>44.5</v>
+        <v>45.6</v>
       </c>
       <c r="F16" t="n">
-        <v>533.1744</v>
+        <v>4000</v>
       </c>
       <c r="G16" t="n">
-        <v>44903.14995731996</v>
+        <v>127860.6952</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="K16" t="n">
+        <v>45</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,32 +1086,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>44.5</v>
+        <v>45.7</v>
       </c>
       <c r="C17" t="n">
-        <v>44.5</v>
+        <v>45.7</v>
       </c>
       <c r="D17" t="n">
-        <v>44.5</v>
+        <v>45.7</v>
       </c>
       <c r="E17" t="n">
-        <v>44.5</v>
+        <v>45.7</v>
       </c>
       <c r="F17" t="n">
-        <v>34.8837</v>
+        <v>1000</v>
       </c>
       <c r="G17" t="n">
-        <v>44903.14995731996</v>
+        <v>128860.6952</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>45</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1130,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>45.3</v>
+        <v>45.7</v>
       </c>
       <c r="C18" t="n">
-        <v>44.4</v>
+        <v>45.7</v>
       </c>
       <c r="D18" t="n">
-        <v>45.3</v>
+        <v>45.7</v>
       </c>
       <c r="E18" t="n">
-        <v>44.4</v>
+        <v>45.7</v>
       </c>
       <c r="F18" t="n">
-        <v>1110</v>
+        <v>1000</v>
       </c>
       <c r="G18" t="n">
-        <v>43793.14995731996</v>
+        <v>128860.6952</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,8 +1154,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>45</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,32 +1172,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>44.5</v>
+        <v>45.2</v>
       </c>
       <c r="C19" t="n">
-        <v>44.5</v>
+        <v>45.2</v>
       </c>
       <c r="D19" t="n">
-        <v>44.5</v>
+        <v>45.2</v>
       </c>
       <c r="E19" t="n">
-        <v>44.5</v>
+        <v>45.2</v>
       </c>
       <c r="F19" t="n">
-        <v>1855.8073</v>
+        <v>952.1739</v>
       </c>
       <c r="G19" t="n">
-        <v>45648.95725731996</v>
+        <v>127908.5213</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="K19" t="n">
+        <v>45</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,32 +1216,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>45.7</v>
+        <v>45.2</v>
       </c>
       <c r="C20" t="n">
-        <v>45.7</v>
+        <v>45.1</v>
       </c>
       <c r="D20" t="n">
-        <v>45.7</v>
+        <v>45.2</v>
       </c>
       <c r="E20" t="n">
-        <v>45.7</v>
+        <v>45.1</v>
       </c>
       <c r="F20" t="n">
-        <v>1578</v>
+        <v>6359.1351</v>
       </c>
       <c r="G20" t="n">
-        <v>47226.95725731996</v>
+        <v>121549.3862</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>45</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,32 +1260,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>45.7</v>
+        <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>44.6</v>
+        <v>45</v>
       </c>
       <c r="D21" t="n">
-        <v>45.7</v>
+        <v>45</v>
       </c>
       <c r="E21" t="n">
-        <v>44.6</v>
+        <v>45</v>
       </c>
       <c r="F21" t="n">
-        <v>22</v>
+        <v>6374.8204</v>
       </c>
       <c r="G21" t="n">
-        <v>47204.95725731996</v>
+        <v>115174.5658</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>45</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,32 +1304,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>45.7</v>
+        <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>45.7</v>
+        <v>45</v>
       </c>
       <c r="D22" t="n">
-        <v>45.7</v>
+        <v>45</v>
       </c>
       <c r="E22" t="n">
-        <v>45.7</v>
+        <v>45</v>
       </c>
       <c r="F22" t="n">
-        <v>1422</v>
+        <v>1297.4351</v>
       </c>
       <c r="G22" t="n">
-        <v>48626.95725731996</v>
+        <v>115174.5658</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>45</v>
+      </c>
+      <c r="K22" t="n">
+        <v>45</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,32 +1348,40 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>45.7</v>
+        <v>45</v>
       </c>
       <c r="C23" t="n">
-        <v>45.7</v>
+        <v>45.6</v>
       </c>
       <c r="D23" t="n">
-        <v>45.7</v>
+        <v>45.6</v>
       </c>
       <c r="E23" t="n">
-        <v>45.7</v>
+        <v>45</v>
       </c>
       <c r="F23" t="n">
-        <v>159</v>
+        <v>12000</v>
       </c>
       <c r="G23" t="n">
-        <v>48626.95725731996</v>
+        <v>127174.5658</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>45</v>
+      </c>
+      <c r="K23" t="n">
+        <v>45</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,32 +1392,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>44.7</v>
+        <v>44.9</v>
       </c>
       <c r="C24" t="n">
-        <v>44.7</v>
+        <v>45.7</v>
       </c>
       <c r="D24" t="n">
-        <v>44.7</v>
+        <v>45.7</v>
       </c>
       <c r="E24" t="n">
-        <v>44.7</v>
+        <v>44.9</v>
       </c>
       <c r="F24" t="n">
-        <v>158.6025</v>
+        <v>9166.6994</v>
       </c>
       <c r="G24" t="n">
-        <v>48468.35475731996</v>
+        <v>136341.2652</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>45</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,32 +1436,40 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="C25" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="D25" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="E25" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>1405.41</v>
       </c>
       <c r="G25" t="n">
-        <v>48468.35475731996</v>
+        <v>134935.8552</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="K25" t="n">
+        <v>45</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,32 +1480,40 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="C26" t="n">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="D26" t="n">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="E26" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="F26" t="n">
-        <v>1000.657</v>
+        <v>2401.2996</v>
       </c>
       <c r="G26" t="n">
-        <v>47467.69775731996</v>
+        <v>134935.8552</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="K26" t="n">
+        <v>45</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,32 +1524,40 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>45.7</v>
+        <v>44.7</v>
       </c>
       <c r="C27" t="n">
-        <v>45.7</v>
+        <v>44.6</v>
       </c>
       <c r="D27" t="n">
-        <v>45.7</v>
+        <v>44.7</v>
       </c>
       <c r="E27" t="n">
-        <v>45.7</v>
+        <v>44.6</v>
       </c>
       <c r="F27" t="n">
-        <v>1319</v>
+        <v>7499.6001</v>
       </c>
       <c r="G27" t="n">
-        <v>48786.69775731996</v>
+        <v>127436.2551</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="K27" t="n">
+        <v>45</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,32 +1568,40 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>45.7</v>
+        <v>45.1</v>
       </c>
       <c r="C28" t="n">
-        <v>45.7</v>
+        <v>45.1</v>
       </c>
       <c r="D28" t="n">
-        <v>45.8</v>
+        <v>45.1</v>
       </c>
       <c r="E28" t="n">
-        <v>45.7</v>
+        <v>45.1</v>
       </c>
       <c r="F28" t="n">
-        <v>2503</v>
+        <v>495.6522</v>
       </c>
       <c r="G28" t="n">
-        <v>48786.69775731996</v>
+        <v>127931.9073</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="K28" t="n">
+        <v>45</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,32 +1612,40 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>45.7</v>
+        <v>45.1</v>
       </c>
       <c r="C29" t="n">
-        <v>46.5</v>
+        <v>45.1</v>
       </c>
       <c r="D29" t="n">
-        <v>46.5</v>
+        <v>45.1</v>
       </c>
       <c r="E29" t="n">
-        <v>45.7</v>
+        <v>45.1</v>
       </c>
       <c r="F29" t="n">
-        <v>7477</v>
+        <v>564.7826</v>
       </c>
       <c r="G29" t="n">
-        <v>56263.69775731996</v>
+        <v>127931.9073</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>45</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,32 +1656,40 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>46.5</v>
+        <v>45.2</v>
       </c>
       <c r="C30" t="n">
-        <v>46.5</v>
+        <v>45.7</v>
       </c>
       <c r="D30" t="n">
-        <v>46.5</v>
+        <v>45.7</v>
       </c>
       <c r="E30" t="n">
-        <v>46.5</v>
+        <v>45.2</v>
       </c>
       <c r="F30" t="n">
-        <v>51.20430107</v>
+        <v>2192.94072866</v>
       </c>
       <c r="G30" t="n">
-        <v>56263.69775731996</v>
+        <v>130124.84802866</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>45</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1700,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>46.5</v>
+        <v>45.7</v>
       </c>
       <c r="C31" t="n">
-        <v>46.5</v>
+        <v>44.7</v>
       </c>
       <c r="D31" t="n">
-        <v>46.5</v>
+        <v>45.7</v>
       </c>
       <c r="E31" t="n">
-        <v>46.5</v>
+        <v>44.7</v>
       </c>
       <c r="F31" t="n">
-        <v>5669</v>
+        <v>58056.70827134</v>
       </c>
       <c r="G31" t="n">
-        <v>56263.69775731996</v>
+        <v>72068.13975731996</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1724,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>45</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,32 +1742,40 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>46</v>
+        <v>44.7</v>
       </c>
       <c r="C32" t="n">
-        <v>46</v>
+        <v>44.7</v>
       </c>
       <c r="D32" t="n">
-        <v>46</v>
+        <v>44.7</v>
       </c>
       <c r="E32" t="n">
-        <v>46</v>
+        <v>44.7</v>
       </c>
       <c r="F32" t="n">
-        <v>2781.722</v>
+        <v>3852</v>
       </c>
       <c r="G32" t="n">
-        <v>53481.97575731996</v>
+        <v>72068.13975731996</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="K32" t="n">
+        <v>45</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,32 +1786,40 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>46.5</v>
+        <v>44.7</v>
       </c>
       <c r="C33" t="n">
-        <v>46.5</v>
+        <v>44.7</v>
       </c>
       <c r="D33" t="n">
-        <v>46.5</v>
+        <v>44.7</v>
       </c>
       <c r="E33" t="n">
-        <v>46.5</v>
+        <v>44.7</v>
       </c>
       <c r="F33" t="n">
-        <v>1172</v>
+        <v>2770</v>
       </c>
       <c r="G33" t="n">
-        <v>54653.97575731996</v>
+        <v>72068.13975731996</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="K33" t="n">
+        <v>45</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,32 +1830,40 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>46.5</v>
+        <v>44.7</v>
       </c>
       <c r="C34" t="n">
-        <v>47.1</v>
+        <v>44.7</v>
       </c>
       <c r="D34" t="n">
-        <v>47.1</v>
+        <v>44.7</v>
       </c>
       <c r="E34" t="n">
-        <v>45.7</v>
+        <v>44.7</v>
       </c>
       <c r="F34" t="n">
-        <v>70076.78492191</v>
+        <v>3564.0826</v>
       </c>
       <c r="G34" t="n">
-        <v>124730.76067923</v>
+        <v>72068.13975731996</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="K34" t="n">
+        <v>45</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,32 +1874,40 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>47.1</v>
+        <v>44.7</v>
       </c>
       <c r="C35" t="n">
-        <v>47.1</v>
+        <v>44.7</v>
       </c>
       <c r="D35" t="n">
-        <v>47.1</v>
+        <v>44.7</v>
       </c>
       <c r="E35" t="n">
-        <v>47.1</v>
+        <v>44.7</v>
       </c>
       <c r="F35" t="n">
-        <v>33</v>
+        <v>2679</v>
       </c>
       <c r="G35" t="n">
-        <v>124730.76067923</v>
+        <v>72068.13975731996</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="K35" t="n">
+        <v>45</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,32 +1918,40 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>47.1</v>
+        <v>44.7</v>
       </c>
       <c r="C36" t="n">
-        <v>47.8</v>
+        <v>44.7</v>
       </c>
       <c r="D36" t="n">
-        <v>47.8</v>
+        <v>44.7</v>
       </c>
       <c r="E36" t="n">
-        <v>47</v>
+        <v>44.7</v>
       </c>
       <c r="F36" t="n">
-        <v>7999</v>
+        <v>690</v>
       </c>
       <c r="G36" t="n">
-        <v>132729.76067923</v>
+        <v>72068.13975731996</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="K36" t="n">
+        <v>45</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,32 +1962,40 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>47</v>
+        <v>44.7</v>
       </c>
       <c r="C37" t="n">
-        <v>47</v>
+        <v>44.7</v>
       </c>
       <c r="D37" t="n">
-        <v>47.9</v>
+        <v>44.7</v>
       </c>
       <c r="E37" t="n">
-        <v>46.7</v>
+        <v>44.7</v>
       </c>
       <c r="F37" t="n">
-        <v>49001.8616</v>
+        <v>7158.219</v>
       </c>
       <c r="G37" t="n">
-        <v>83727.89907922997</v>
+        <v>72068.13975731996</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="K37" t="n">
+        <v>45</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,32 +2006,40 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>46.8</v>
+        <v>44.6</v>
       </c>
       <c r="C38" t="n">
-        <v>47</v>
+        <v>44.6</v>
       </c>
       <c r="D38" t="n">
-        <v>47.1</v>
+        <v>44.7</v>
       </c>
       <c r="E38" t="n">
-        <v>46.8</v>
+        <v>44.6</v>
       </c>
       <c r="F38" t="n">
-        <v>31660.3568</v>
+        <v>11184.1677</v>
       </c>
       <c r="G38" t="n">
-        <v>83727.89907922997</v>
+        <v>60883.97205731997</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="K38" t="n">
+        <v>45</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,32 +2050,40 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>47</v>
+        <v>44.5</v>
       </c>
       <c r="C39" t="n">
-        <v>46.8</v>
+        <v>44.4</v>
       </c>
       <c r="D39" t="n">
-        <v>47</v>
+        <v>44.5</v>
       </c>
       <c r="E39" t="n">
-        <v>46.8</v>
+        <v>44.4</v>
       </c>
       <c r="F39" t="n">
-        <v>2874.8443</v>
+        <v>20457.6477</v>
       </c>
       <c r="G39" t="n">
-        <v>80853.05477922998</v>
+        <v>40426.32435731997</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="K39" t="n">
+        <v>45</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,32 +2094,40 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>46.7</v>
+        <v>44.5</v>
       </c>
       <c r="C40" t="n">
-        <v>46.9</v>
+        <v>44.4</v>
       </c>
       <c r="D40" t="n">
-        <v>47.8</v>
+        <v>44.5</v>
       </c>
       <c r="E40" t="n">
-        <v>46.7</v>
+        <v>44.4</v>
       </c>
       <c r="F40" t="n">
-        <v>7180.3562</v>
+        <v>2672.1932</v>
       </c>
       <c r="G40" t="n">
-        <v>88033.41097922997</v>
+        <v>40426.32435731997</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="K40" t="n">
+        <v>45</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,32 +2138,40 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>46.9</v>
+        <v>44.4</v>
       </c>
       <c r="C41" t="n">
-        <v>46.8</v>
+        <v>44.4</v>
       </c>
       <c r="D41" t="n">
-        <v>47.7</v>
+        <v>44.4</v>
       </c>
       <c r="E41" t="n">
-        <v>46.8</v>
+        <v>44.4</v>
       </c>
       <c r="F41" t="n">
-        <v>56623.744</v>
+        <v>2672.1932</v>
       </c>
       <c r="G41" t="n">
-        <v>31409.66697922997</v>
+        <v>40426.32435731997</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="K41" t="n">
+        <v>45</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,32 +2182,40 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>46.8</v>
+        <v>44.7</v>
       </c>
       <c r="C42" t="n">
-        <v>45.7</v>
+        <v>44.9</v>
       </c>
       <c r="D42" t="n">
-        <v>46.9</v>
+        <v>44.9</v>
       </c>
       <c r="E42" t="n">
-        <v>45.7</v>
+        <v>44.7</v>
       </c>
       <c r="F42" t="n">
-        <v>9955.7721</v>
+        <v>5000</v>
       </c>
       <c r="G42" t="n">
-        <v>21453.89487922997</v>
+        <v>45426.32435731997</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="K42" t="n">
+        <v>45</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,32 +2226,40 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>46.1</v>
+        <v>45.7</v>
       </c>
       <c r="C43" t="n">
-        <v>46.1</v>
+        <v>45.7</v>
       </c>
       <c r="D43" t="n">
-        <v>46.1</v>
+        <v>45.7</v>
       </c>
       <c r="E43" t="n">
-        <v>46.1</v>
+        <v>45.7</v>
       </c>
       <c r="F43" t="n">
-        <v>564.9521999999999</v>
+        <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>22018.84707922997</v>
+        <v>45436.32435731997</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="K43" t="n">
+        <v>45</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,32 +2270,40 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>46.1</v>
+        <v>45.7</v>
       </c>
       <c r="C44" t="n">
-        <v>46.9</v>
+        <v>45.7</v>
       </c>
       <c r="D44" t="n">
-        <v>46.9</v>
+        <v>45.7</v>
       </c>
       <c r="E44" t="n">
-        <v>46.1</v>
+        <v>45.7</v>
       </c>
       <c r="F44" t="n">
-        <v>18432.3984</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>40451.24547922997</v>
+        <v>45436.32435731997</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="K44" t="n">
+        <v>45</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2314,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>46.9</v>
+        <v>44.5</v>
       </c>
       <c r="C45" t="n">
-        <v>46.9</v>
+        <v>44.5</v>
       </c>
       <c r="D45" t="n">
-        <v>46.9</v>
+        <v>44.5</v>
       </c>
       <c r="E45" t="n">
-        <v>46.9</v>
+        <v>44.5</v>
       </c>
       <c r="F45" t="n">
-        <v>929.0739</v>
+        <v>533.1744</v>
       </c>
       <c r="G45" t="n">
-        <v>40451.24547922997</v>
+        <v>44903.14995731996</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2010,8 +2338,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>45</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,32 +2356,40 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>46.9</v>
+        <v>44.5</v>
       </c>
       <c r="C46" t="n">
-        <v>46.8</v>
+        <v>44.5</v>
       </c>
       <c r="D46" t="n">
-        <v>46.9</v>
+        <v>44.5</v>
       </c>
       <c r="E46" t="n">
-        <v>46.8</v>
+        <v>44.5</v>
       </c>
       <c r="F46" t="n">
-        <v>13411.4519</v>
+        <v>34.8837</v>
       </c>
       <c r="G46" t="n">
-        <v>27039.79357922997</v>
+        <v>44903.14995731996</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>45</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,32 +2400,40 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>46</v>
+        <v>45.3</v>
       </c>
       <c r="C47" t="n">
-        <v>46.5</v>
+        <v>44.4</v>
       </c>
       <c r="D47" t="n">
-        <v>46.5</v>
+        <v>45.3</v>
       </c>
       <c r="E47" t="n">
-        <v>45.8</v>
+        <v>44.4</v>
       </c>
       <c r="F47" t="n">
-        <v>45473.8129</v>
+        <v>1110</v>
       </c>
       <c r="G47" t="n">
-        <v>-18434.01932077003</v>
+        <v>43793.14995731996</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>45</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,32 +2444,40 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>46.4</v>
+        <v>44.5</v>
       </c>
       <c r="C48" t="n">
-        <v>46.4</v>
+        <v>44.5</v>
       </c>
       <c r="D48" t="n">
-        <v>46.4</v>
+        <v>44.5</v>
       </c>
       <c r="E48" t="n">
-        <v>46.4</v>
+        <v>44.5</v>
       </c>
       <c r="F48" t="n">
-        <v>2581.2033</v>
+        <v>1855.8073</v>
       </c>
       <c r="G48" t="n">
-        <v>-21015.22262077003</v>
+        <v>45648.95725731996</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>45</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,22 +2488,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>46.3</v>
+        <v>45.7</v>
       </c>
       <c r="C49" t="n">
-        <v>46.4</v>
+        <v>45.7</v>
       </c>
       <c r="D49" t="n">
-        <v>46.4</v>
+        <v>45.7</v>
       </c>
       <c r="E49" t="n">
-        <v>46.3</v>
+        <v>45.7</v>
       </c>
       <c r="F49" t="n">
-        <v>2808.6957</v>
+        <v>1578</v>
       </c>
       <c r="G49" t="n">
-        <v>-21015.22262077003</v>
+        <v>47226.95725731996</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2154,8 +2512,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>45</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,22 +2530,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>46.3</v>
+        <v>45.7</v>
       </c>
       <c r="C50" t="n">
-        <v>46.4</v>
+        <v>44.6</v>
       </c>
       <c r="D50" t="n">
-        <v>46.4</v>
+        <v>45.7</v>
       </c>
       <c r="E50" t="n">
-        <v>46.3</v>
+        <v>44.6</v>
       </c>
       <c r="F50" t="n">
-        <v>9805.077300000001</v>
+        <v>22</v>
       </c>
       <c r="G50" t="n">
-        <v>-21015.22262077003</v>
+        <v>47204.95725731996</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2190,8 +2554,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>45</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,22 +2572,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>46.4</v>
+        <v>45.7</v>
       </c>
       <c r="C51" t="n">
-        <v>46.7</v>
+        <v>45.7</v>
       </c>
       <c r="D51" t="n">
-        <v>46.7</v>
+        <v>45.7</v>
       </c>
       <c r="E51" t="n">
-        <v>46.2</v>
+        <v>45.7</v>
       </c>
       <c r="F51" t="n">
-        <v>11858.4009</v>
+        <v>1422</v>
       </c>
       <c r="G51" t="n">
-        <v>-9156.821720770029</v>
+        <v>48626.95725731996</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2226,8 +2596,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>45</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,22 +2614,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>46.3</v>
+        <v>45.7</v>
       </c>
       <c r="C52" t="n">
-        <v>46.3</v>
+        <v>45.7</v>
       </c>
       <c r="D52" t="n">
-        <v>46.3</v>
+        <v>45.7</v>
       </c>
       <c r="E52" t="n">
-        <v>46.2</v>
+        <v>45.7</v>
       </c>
       <c r="F52" t="n">
-        <v>14464.7154</v>
+        <v>159</v>
       </c>
       <c r="G52" t="n">
-        <v>-23621.53712077003</v>
+        <v>48626.95725731996</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2262,8 +2638,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>45</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,22 +2656,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>46.8</v>
+        <v>44.7</v>
       </c>
       <c r="C53" t="n">
-        <v>46.8</v>
+        <v>44.7</v>
       </c>
       <c r="D53" t="n">
-        <v>46.8</v>
+        <v>44.7</v>
       </c>
       <c r="E53" t="n">
-        <v>46.8</v>
+        <v>44.7</v>
       </c>
       <c r="F53" t="n">
-        <v>1000</v>
+        <v>158.6025</v>
       </c>
       <c r="G53" t="n">
-        <v>-22621.53712077003</v>
+        <v>48468.35475731996</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2298,8 +2680,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>45</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,22 +2698,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>46.6</v>
+        <v>44.7</v>
       </c>
       <c r="C54" t="n">
-        <v>47</v>
+        <v>44.7</v>
       </c>
       <c r="D54" t="n">
-        <v>47</v>
+        <v>44.7</v>
       </c>
       <c r="E54" t="n">
-        <v>46.6</v>
+        <v>44.7</v>
       </c>
       <c r="F54" t="n">
-        <v>11158.5971</v>
+        <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>-11462.94002077003</v>
+        <v>48468.35475731996</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2334,8 +2722,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>45</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,22 +2740,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>47</v>
+        <v>44.6</v>
       </c>
       <c r="C55" t="n">
-        <v>49.1</v>
+        <v>44.6</v>
       </c>
       <c r="D55" t="n">
-        <v>49.4</v>
+        <v>44.6</v>
       </c>
       <c r="E55" t="n">
-        <v>46.9</v>
+        <v>44.6</v>
       </c>
       <c r="F55" t="n">
-        <v>203632.3561</v>
+        <v>1000.657</v>
       </c>
       <c r="G55" t="n">
-        <v>192169.41607923</v>
+        <v>47467.69775731996</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2370,8 +2764,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>45</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,32 +2782,38 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>47.6</v>
+        <v>45.7</v>
       </c>
       <c r="C56" t="n">
-        <v>47.9</v>
+        <v>45.7</v>
       </c>
       <c r="D56" t="n">
-        <v>49.1</v>
+        <v>45.7</v>
       </c>
       <c r="E56" t="n">
-        <v>47.3</v>
+        <v>45.7</v>
       </c>
       <c r="F56" t="n">
-        <v>60593.3774</v>
+        <v>1319</v>
       </c>
       <c r="G56" t="n">
-        <v>131576.03867923</v>
+        <v>48786.69775731996</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>45</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2418,32 +2824,38 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>48.1</v>
+        <v>45.7</v>
       </c>
       <c r="C57" t="n">
-        <v>49.6</v>
+        <v>45.7</v>
       </c>
       <c r="D57" t="n">
-        <v>49.9</v>
+        <v>45.8</v>
       </c>
       <c r="E57" t="n">
-        <v>47.9</v>
+        <v>45.7</v>
       </c>
       <c r="F57" t="n">
-        <v>41379.0042</v>
+        <v>2503</v>
       </c>
       <c r="G57" t="n">
-        <v>172955.04287923</v>
+        <v>48786.69775731996</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>45</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2454,32 +2866,38 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>49.6</v>
+        <v>45.7</v>
       </c>
       <c r="C58" t="n">
-        <v>48.9</v>
+        <v>46.5</v>
       </c>
       <c r="D58" t="n">
-        <v>49.6</v>
+        <v>46.5</v>
       </c>
       <c r="E58" t="n">
-        <v>48.3</v>
+        <v>45.7</v>
       </c>
       <c r="F58" t="n">
-        <v>7384.645</v>
+        <v>7477</v>
       </c>
       <c r="G58" t="n">
-        <v>165570.39787923</v>
+        <v>56263.69775731996</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>45</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2490,32 +2908,38 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>48.9</v>
+        <v>46.5</v>
       </c>
       <c r="C59" t="n">
-        <v>48</v>
+        <v>46.5</v>
       </c>
       <c r="D59" t="n">
-        <v>48.9</v>
+        <v>46.5</v>
       </c>
       <c r="E59" t="n">
-        <v>48</v>
+        <v>46.5</v>
       </c>
       <c r="F59" t="n">
-        <v>111059.968</v>
+        <v>51.20430107</v>
       </c>
       <c r="G59" t="n">
-        <v>54510.42987922998</v>
+        <v>56263.69775731996</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>45</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2526,32 +2950,38 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>47.8</v>
+        <v>46.5</v>
       </c>
       <c r="C60" t="n">
-        <v>49.2</v>
+        <v>46.5</v>
       </c>
       <c r="D60" t="n">
-        <v>49.2</v>
+        <v>46.5</v>
       </c>
       <c r="E60" t="n">
-        <v>47.8</v>
+        <v>46.5</v>
       </c>
       <c r="F60" t="n">
-        <v>50899.5817</v>
+        <v>5669</v>
       </c>
       <c r="G60" t="n">
-        <v>105410.01157923</v>
+        <v>56263.69775731996</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>45</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2562,22 +2992,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>49.2</v>
+        <v>46</v>
       </c>
       <c r="C61" t="n">
-        <v>49.7</v>
+        <v>46</v>
       </c>
       <c r="D61" t="n">
-        <v>49.8</v>
+        <v>46</v>
       </c>
       <c r="E61" t="n">
-        <v>48.6</v>
+        <v>46</v>
       </c>
       <c r="F61" t="n">
-        <v>16298.5479</v>
+        <v>2781.722</v>
       </c>
       <c r="G61" t="n">
-        <v>121708.55947923</v>
+        <v>53481.97575731996</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2586,8 +3016,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>45</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2598,32 +3034,38 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>49.7</v>
+        <v>46.5</v>
       </c>
       <c r="C62" t="n">
-        <v>49.4</v>
+        <v>46.5</v>
       </c>
       <c r="D62" t="n">
-        <v>49.8</v>
+        <v>46.5</v>
       </c>
       <c r="E62" t="n">
-        <v>49</v>
+        <v>46.5</v>
       </c>
       <c r="F62" t="n">
-        <v>43791.1201</v>
+        <v>1172</v>
       </c>
       <c r="G62" t="n">
-        <v>77917.43937923</v>
+        <v>54653.97575731996</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>45</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2634,32 +3076,38 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>49</v>
+        <v>46.5</v>
       </c>
       <c r="C63" t="n">
-        <v>49</v>
+        <v>47.1</v>
       </c>
       <c r="D63" t="n">
-        <v>49</v>
+        <v>47.1</v>
       </c>
       <c r="E63" t="n">
-        <v>49</v>
+        <v>45.7</v>
       </c>
       <c r="F63" t="n">
-        <v>2997.8622</v>
+        <v>70076.78492191</v>
       </c>
       <c r="G63" t="n">
-        <v>74919.57717922999</v>
+        <v>124730.76067923</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>45</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2670,32 +3118,38 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>48.8</v>
+        <v>47.1</v>
       </c>
       <c r="C64" t="n">
-        <v>48.3</v>
+        <v>47.1</v>
       </c>
       <c r="D64" t="n">
-        <v>48.8</v>
+        <v>47.1</v>
       </c>
       <c r="E64" t="n">
-        <v>48.3</v>
+        <v>47.1</v>
       </c>
       <c r="F64" t="n">
-        <v>39775.9454</v>
+        <v>33</v>
       </c>
       <c r="G64" t="n">
-        <v>35143.63177923</v>
+        <v>124730.76067923</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>45</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2706,32 +3160,38 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>47.6</v>
+        <v>47.1</v>
       </c>
       <c r="C65" t="n">
-        <v>46.6</v>
+        <v>47.8</v>
       </c>
       <c r="D65" t="n">
         <v>47.8</v>
       </c>
       <c r="E65" t="n">
-        <v>46.6</v>
+        <v>47</v>
       </c>
       <c r="F65" t="n">
-        <v>43240.4152</v>
+        <v>7999</v>
       </c>
       <c r="G65" t="n">
-        <v>-8096.783420770007</v>
+        <v>132729.76067923</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>45</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2742,32 +3202,38 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>45.9</v>
+        <v>47</v>
       </c>
       <c r="C66" t="n">
-        <v>47.1</v>
+        <v>47</v>
       </c>
       <c r="D66" t="n">
-        <v>47.1</v>
+        <v>47.9</v>
       </c>
       <c r="E66" t="n">
-        <v>45.9</v>
+        <v>46.7</v>
       </c>
       <c r="F66" t="n">
-        <v>7743.0094</v>
+        <v>49001.8616</v>
       </c>
       <c r="G66" t="n">
-        <v>-353.7740207700072</v>
+        <v>83727.89907922997</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>45</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +3244,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>46.9</v>
+        <v>46.8</v>
       </c>
       <c r="C67" t="n">
-        <v>46.9</v>
+        <v>47</v>
       </c>
       <c r="D67" t="n">
-        <v>46.9</v>
+        <v>47.1</v>
       </c>
       <c r="E67" t="n">
-        <v>46.9</v>
+        <v>46.8</v>
       </c>
       <c r="F67" t="n">
-        <v>15111.6567</v>
+        <v>31660.3568</v>
       </c>
       <c r="G67" t="n">
-        <v>-15465.43072077001</v>
+        <v>83727.89907922997</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2802,8 +3268,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>45</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2814,32 +3286,38 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>46.8</v>
+        <v>47</v>
       </c>
       <c r="C68" t="n">
         <v>46.8</v>
       </c>
       <c r="D68" t="n">
+        <v>47</v>
+      </c>
+      <c r="E68" t="n">
         <v>46.8</v>
       </c>
-      <c r="E68" t="n">
-        <v>46.1</v>
-      </c>
       <c r="F68" t="n">
-        <v>2100</v>
+        <v>2874.8443</v>
       </c>
       <c r="G68" t="n">
-        <v>-17565.43072077001</v>
+        <v>80853.05477922998</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>45</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2850,22 +3328,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>46.5</v>
+        <v>46.7</v>
       </c>
       <c r="C69" t="n">
         <v>46.9</v>
       </c>
       <c r="D69" t="n">
-        <v>46.9</v>
+        <v>47.8</v>
       </c>
       <c r="E69" t="n">
-        <v>46.4</v>
+        <v>46.7</v>
       </c>
       <c r="F69" t="n">
-        <v>10923.9319</v>
+        <v>7180.3562</v>
       </c>
       <c r="G69" t="n">
-        <v>-6641.498820770008</v>
+        <v>88033.41097922997</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2874,8 +3352,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>45</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2889,19 +3373,19 @@
         <v>46.9</v>
       </c>
       <c r="C70" t="n">
-        <v>47.5</v>
+        <v>46.8</v>
       </c>
       <c r="D70" t="n">
-        <v>47.5</v>
+        <v>47.7</v>
       </c>
       <c r="E70" t="n">
-        <v>46.9</v>
+        <v>46.8</v>
       </c>
       <c r="F70" t="n">
-        <v>20684.65217852</v>
+        <v>56623.744</v>
       </c>
       <c r="G70" t="n">
-        <v>14043.15335774999</v>
+        <v>31409.66697922997</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2910,8 +3394,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>45</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2922,32 +3412,38 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>46.6</v>
+        <v>46.8</v>
       </c>
       <c r="C71" t="n">
-        <v>47.3</v>
+        <v>45.7</v>
       </c>
       <c r="D71" t="n">
-        <v>47.3</v>
+        <v>46.9</v>
       </c>
       <c r="E71" t="n">
-        <v>46.5</v>
+        <v>45.7</v>
       </c>
       <c r="F71" t="n">
-        <v>113295.0591</v>
+        <v>9955.7721</v>
       </c>
       <c r="G71" t="n">
-        <v>-99251.90574225</v>
+        <v>21453.89487922997</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>45</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2958,32 +3454,38 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>46.4</v>
+        <v>46.1</v>
       </c>
       <c r="C72" t="n">
-        <v>47</v>
+        <v>46.1</v>
       </c>
       <c r="D72" t="n">
-        <v>47</v>
+        <v>46.1</v>
       </c>
       <c r="E72" t="n">
-        <v>46.3</v>
+        <v>46.1</v>
       </c>
       <c r="F72" t="n">
-        <v>25787.6461</v>
+        <v>564.9521999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>-125039.55184225</v>
+        <v>22018.84707922997</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>45</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2994,7 +3496,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>46.4</v>
+        <v>46.1</v>
       </c>
       <c r="C73" t="n">
         <v>46.9</v>
@@ -3003,23 +3505,29 @@
         <v>46.9</v>
       </c>
       <c r="E73" t="n">
-        <v>46.4</v>
+        <v>46.1</v>
       </c>
       <c r="F73" t="n">
-        <v>8921.5144</v>
+        <v>18432.3984</v>
       </c>
       <c r="G73" t="n">
-        <v>-133961.06624225</v>
+        <v>40451.24547922997</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>45</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3030,32 +3538,38 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>46.6</v>
+        <v>46.9</v>
       </c>
       <c r="C74" t="n">
-        <v>46.7</v>
+        <v>46.9</v>
       </c>
       <c r="D74" t="n">
-        <v>46.7</v>
+        <v>46.9</v>
       </c>
       <c r="E74" t="n">
-        <v>46.3</v>
+        <v>46.9</v>
       </c>
       <c r="F74" t="n">
-        <v>26949.4689</v>
+        <v>929.0739</v>
       </c>
       <c r="G74" t="n">
-        <v>-160910.53514225</v>
+        <v>40451.24547922997</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>45</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3066,32 +3580,38 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>46.4</v>
+        <v>46.9</v>
       </c>
       <c r="C75" t="n">
-        <v>46.5</v>
+        <v>46.8</v>
       </c>
       <c r="D75" t="n">
-        <v>46.5</v>
+        <v>46.9</v>
       </c>
       <c r="E75" t="n">
-        <v>46.3</v>
+        <v>46.8</v>
       </c>
       <c r="F75" t="n">
-        <v>39000</v>
+        <v>13411.4519</v>
       </c>
       <c r="G75" t="n">
-        <v>-199910.53514225</v>
+        <v>27039.79357922997</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>45</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3102,32 +3622,38 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>46</v>
+      </c>
+      <c r="C76" t="n">
         <v>46.5</v>
       </c>
-      <c r="C76" t="n">
-        <v>46.7</v>
-      </c>
       <c r="D76" t="n">
-        <v>46.7</v>
+        <v>46.5</v>
       </c>
       <c r="E76" t="n">
-        <v>46.4</v>
+        <v>45.8</v>
       </c>
       <c r="F76" t="n">
-        <v>10685.3</v>
+        <v>45473.8129</v>
       </c>
       <c r="G76" t="n">
-        <v>-189225.23514225</v>
+        <v>-18434.01932077003</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>45</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3138,32 +3664,38 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>46.7</v>
+        <v>46.4</v>
       </c>
       <c r="C77" t="n">
-        <v>45.8</v>
+        <v>46.4</v>
       </c>
       <c r="D77" t="n">
-        <v>47</v>
+        <v>46.4</v>
       </c>
       <c r="E77" t="n">
-        <v>45.8</v>
+        <v>46.4</v>
       </c>
       <c r="F77" t="n">
-        <v>50171.74351276</v>
+        <v>2581.2033</v>
       </c>
       <c r="G77" t="n">
-        <v>-239396.97865501</v>
+        <v>-21015.22262077003</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>45</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3174,32 +3706,38 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>46.8</v>
+        <v>46.3</v>
       </c>
       <c r="C78" t="n">
-        <v>47</v>
+        <v>46.4</v>
       </c>
       <c r="D78" t="n">
-        <v>47</v>
+        <v>46.4</v>
       </c>
       <c r="E78" t="n">
-        <v>46.8</v>
+        <v>46.3</v>
       </c>
       <c r="F78" t="n">
-        <v>6873.47030319</v>
+        <v>2808.6957</v>
       </c>
       <c r="G78" t="n">
-        <v>-232523.50835182</v>
+        <v>-21015.22262077003</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>45</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3210,36 +3748,36 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>46.5</v>
+        <v>46.3</v>
       </c>
       <c r="C79" t="n">
-        <v>46.6</v>
+        <v>46.4</v>
       </c>
       <c r="D79" t="n">
-        <v>46.6</v>
+        <v>46.4</v>
       </c>
       <c r="E79" t="n">
-        <v>46.5</v>
+        <v>46.3</v>
       </c>
       <c r="F79" t="n">
-        <v>9147.379999999999</v>
+        <v>9805.077300000001</v>
       </c>
       <c r="G79" t="n">
-        <v>-241670.88835182</v>
+        <v>-21015.22262077003</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>47</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>45</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M79" t="n">
@@ -3252,22 +3790,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>46.6</v>
+        <v>46.4</v>
       </c>
       <c r="C80" t="n">
-        <v>46.6</v>
+        <v>46.7</v>
       </c>
       <c r="D80" t="n">
-        <v>46.6</v>
+        <v>46.7</v>
       </c>
       <c r="E80" t="n">
-        <v>46.6</v>
+        <v>46.2</v>
       </c>
       <c r="F80" t="n">
-        <v>1000</v>
+        <v>11858.4009</v>
       </c>
       <c r="G80" t="n">
-        <v>-241670.88835182</v>
+        <v>-9156.821720770029</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3276,7 +3814,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>45</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3292,22 +3832,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>46.6</v>
+        <v>46.3</v>
       </c>
       <c r="C81" t="n">
-        <v>46.6</v>
+        <v>46.3</v>
       </c>
       <c r="D81" t="n">
-        <v>46.6</v>
+        <v>46.3</v>
       </c>
       <c r="E81" t="n">
-        <v>46.6</v>
+        <v>46.2</v>
       </c>
       <c r="F81" t="n">
-        <v>3000</v>
+        <v>14464.7154</v>
       </c>
       <c r="G81" t="n">
-        <v>-241670.88835182</v>
+        <v>-23621.53712077003</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3316,7 +3856,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>45</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3332,33 +3874,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>46.6</v>
+        <v>46.8</v>
       </c>
       <c r="C82" t="n">
-        <v>47</v>
+        <v>46.8</v>
       </c>
       <c r="D82" t="n">
-        <v>47</v>
+        <v>46.8</v>
       </c>
       <c r="E82" t="n">
-        <v>46.6</v>
+        <v>46.8</v>
       </c>
       <c r="F82" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G82" t="n">
-        <v>-238670.88835182</v>
+        <v>-22621.53712077003</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>45</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3374,22 +3916,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>45.8</v>
+        <v>46.6</v>
       </c>
       <c r="C83" t="n">
-        <v>45.8</v>
+        <v>47</v>
       </c>
       <c r="D83" t="n">
-        <v>45.8</v>
+        <v>47</v>
       </c>
       <c r="E83" t="n">
-        <v>45.8</v>
+        <v>46.6</v>
       </c>
       <c r="F83" t="n">
-        <v>3950</v>
+        <v>11158.5971</v>
       </c>
       <c r="G83" t="n">
-        <v>-242620.88835182</v>
+        <v>-11462.94002077003</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3398,7 +3940,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>45</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3414,33 +3958,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>45.8</v>
+        <v>47</v>
       </c>
       <c r="C84" t="n">
-        <v>46.7</v>
+        <v>49.1</v>
       </c>
       <c r="D84" t="n">
-        <v>46.8</v>
+        <v>49.4</v>
       </c>
       <c r="E84" t="n">
-        <v>45.8</v>
+        <v>46.9</v>
       </c>
       <c r="F84" t="n">
-        <v>5427.8592</v>
+        <v>203632.3561</v>
       </c>
       <c r="G84" t="n">
-        <v>-237193.02915182</v>
+        <v>192169.41607923</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>45</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3456,33 +4000,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>46.7</v>
+        <v>47.6</v>
       </c>
       <c r="C85" t="n">
-        <v>46.8</v>
+        <v>47.9</v>
       </c>
       <c r="D85" t="n">
-        <v>46.8</v>
+        <v>49.1</v>
       </c>
       <c r="E85" t="n">
-        <v>46.7</v>
+        <v>47.3</v>
       </c>
       <c r="F85" t="n">
-        <v>10574.7649</v>
+        <v>60593.3774</v>
       </c>
       <c r="G85" t="n">
-        <v>-226618.26425182</v>
+        <v>131576.03867923</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>45</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3498,80 +4042,76 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>45.9</v>
+        <v>48.1</v>
       </c>
       <c r="C86" t="n">
-        <v>45.9</v>
+        <v>49.6</v>
       </c>
       <c r="D86" t="n">
-        <v>45.9</v>
+        <v>49.9</v>
       </c>
       <c r="E86" t="n">
-        <v>45.9</v>
+        <v>47.9</v>
       </c>
       <c r="F86" t="n">
-        <v>25507.7234</v>
+        <v>41379.0042</v>
       </c>
       <c r="G86" t="n">
-        <v>-252125.98765182</v>
+        <v>172955.04287923</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
-      <c r="J86" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>45</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>1.097222222222222</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1.002222222222222</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>46.2</v>
+        <v>49.6</v>
       </c>
       <c r="C87" t="n">
-        <v>46.2</v>
+        <v>48.9</v>
       </c>
       <c r="D87" t="n">
-        <v>46.2</v>
+        <v>49.6</v>
       </c>
       <c r="E87" t="n">
-        <v>46.2</v>
+        <v>48.3</v>
       </c>
       <c r="F87" t="n">
-        <v>18260.0216</v>
+        <v>7384.645</v>
       </c>
       <c r="G87" t="n">
-        <v>-233865.96605182</v>
+        <v>165570.39787923</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>45.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3582,36 +4122,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>45.5</v>
+        <v>48.9</v>
       </c>
       <c r="C88" t="n">
-        <v>46.2</v>
+        <v>48</v>
       </c>
       <c r="D88" t="n">
-        <v>46.2</v>
+        <v>48.9</v>
       </c>
       <c r="E88" t="n">
-        <v>45.4</v>
+        <v>48</v>
       </c>
       <c r="F88" t="n">
-        <v>12548.7444</v>
+        <v>111059.968</v>
       </c>
       <c r="G88" t="n">
-        <v>-233865.96605182</v>
+        <v>54510.42987922998</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3622,36 +4158,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>45.7</v>
+        <v>47.8</v>
       </c>
       <c r="C89" t="n">
-        <v>45.7</v>
+        <v>49.2</v>
       </c>
       <c r="D89" t="n">
-        <v>45.7</v>
+        <v>49.2</v>
       </c>
       <c r="E89" t="n">
-        <v>45.7</v>
+        <v>47.8</v>
       </c>
       <c r="F89" t="n">
-        <v>10044.5963</v>
+        <v>50899.5817</v>
       </c>
       <c r="G89" t="n">
-        <v>-243910.56235182</v>
+        <v>105410.01157923</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3662,36 +4194,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>45.1</v>
+        <v>49.2</v>
       </c>
       <c r="C90" t="n">
-        <v>45</v>
+        <v>49.7</v>
       </c>
       <c r="D90" t="n">
-        <v>45.1</v>
+        <v>49.8</v>
       </c>
       <c r="E90" t="n">
-        <v>45</v>
+        <v>48.6</v>
       </c>
       <c r="F90" t="n">
-        <v>3152.2345</v>
+        <v>16298.5479</v>
       </c>
       <c r="G90" t="n">
-        <v>-247062.79685182</v>
+        <v>121708.55947923</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3702,36 +4230,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>45.2</v>
+        <v>49.7</v>
       </c>
       <c r="C91" t="n">
-        <v>45.1</v>
+        <v>49.4</v>
       </c>
       <c r="D91" t="n">
-        <v>45.2</v>
+        <v>49.8</v>
       </c>
       <c r="E91" t="n">
-        <v>45.1</v>
+        <v>49</v>
       </c>
       <c r="F91" t="n">
-        <v>27624.0274</v>
+        <v>43791.1201</v>
       </c>
       <c r="G91" t="n">
-        <v>-219438.76945182</v>
+        <v>77917.43937923</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3742,36 +4266,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>45.1</v>
+        <v>49</v>
       </c>
       <c r="C92" t="n">
-        <v>45.1</v>
+        <v>49</v>
       </c>
       <c r="D92" t="n">
-        <v>45.1</v>
+        <v>49</v>
       </c>
       <c r="E92" t="n">
-        <v>45.1</v>
+        <v>49</v>
       </c>
       <c r="F92" t="n">
-        <v>983.5051</v>
+        <v>2997.8622</v>
       </c>
       <c r="G92" t="n">
-        <v>-219438.76945182</v>
+        <v>74919.57717922999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3782,36 +4302,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>45.1</v>
+        <v>48.8</v>
       </c>
       <c r="C93" t="n">
-        <v>45.1</v>
+        <v>48.3</v>
       </c>
       <c r="D93" t="n">
-        <v>45.1</v>
+        <v>48.8</v>
       </c>
       <c r="E93" t="n">
-        <v>45.1</v>
+        <v>48.3</v>
       </c>
       <c r="F93" t="n">
-        <v>9897.1805</v>
+        <v>39775.9454</v>
       </c>
       <c r="G93" t="n">
-        <v>-219438.76945182</v>
+        <v>35143.63177923</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3822,38 +4338,32 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>45.4</v>
+        <v>47.6</v>
       </c>
       <c r="C94" t="n">
-        <v>45.4</v>
+        <v>46.6</v>
       </c>
       <c r="D94" t="n">
-        <v>45.4</v>
+        <v>47.8</v>
       </c>
       <c r="E94" t="n">
-        <v>45.4</v>
+        <v>46.6</v>
       </c>
       <c r="F94" t="n">
-        <v>12016.8826</v>
+        <v>43240.4152</v>
       </c>
       <c r="G94" t="n">
-        <v>-207421.88685182</v>
+        <v>-8096.783420770007</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>45.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3864,38 +4374,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>44.9</v>
+        <v>45.9</v>
       </c>
       <c r="C95" t="n">
-        <v>44.9</v>
+        <v>47.1</v>
       </c>
       <c r="D95" t="n">
-        <v>44.9</v>
+        <v>47.1</v>
       </c>
       <c r="E95" t="n">
-        <v>44.9</v>
+        <v>45.9</v>
       </c>
       <c r="F95" t="n">
-        <v>86967.3199</v>
+        <v>7743.0094</v>
       </c>
       <c r="G95" t="n">
-        <v>-294389.20675182</v>
+        <v>-353.7740207700072</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>45.4</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3906,38 +4410,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>45.2</v>
+        <v>46.9</v>
       </c>
       <c r="C96" t="n">
-        <v>45.2</v>
+        <v>46.9</v>
       </c>
       <c r="D96" t="n">
-        <v>45.2</v>
+        <v>46.9</v>
       </c>
       <c r="E96" t="n">
-        <v>45.2</v>
+        <v>46.9</v>
       </c>
       <c r="F96" t="n">
-        <v>10765</v>
+        <v>15111.6567</v>
       </c>
       <c r="G96" t="n">
-        <v>-283624.20675182</v>
+        <v>-15465.43072077001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>44.9</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3948,38 +4446,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>44.8</v>
+        <v>46.8</v>
       </c>
       <c r="C97" t="n">
-        <v>45.4</v>
+        <v>46.8</v>
       </c>
       <c r="D97" t="n">
-        <v>45.4</v>
+        <v>46.8</v>
       </c>
       <c r="E97" t="n">
-        <v>44.8</v>
+        <v>46.1</v>
       </c>
       <c r="F97" t="n">
-        <v>53845.6842</v>
+        <v>2100</v>
       </c>
       <c r="G97" t="n">
-        <v>-229778.52255182</v>
+        <v>-17565.43072077001</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>45.2</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3990,38 +4482,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>45.2</v>
+        <v>46.5</v>
       </c>
       <c r="C98" t="n">
-        <v>46.2</v>
+        <v>46.9</v>
       </c>
       <c r="D98" t="n">
-        <v>46.2</v>
+        <v>46.9</v>
       </c>
       <c r="E98" t="n">
-        <v>45.2</v>
+        <v>46.4</v>
       </c>
       <c r="F98" t="n">
-        <v>17911.0913</v>
+        <v>10923.9319</v>
       </c>
       <c r="G98" t="n">
-        <v>-211867.43125182</v>
+        <v>-6641.498820770008</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>45.4</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4032,22 +4518,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>45.1</v>
+        <v>46.9</v>
       </c>
       <c r="C99" t="n">
-        <v>45.6</v>
+        <v>47.5</v>
       </c>
       <c r="D99" t="n">
-        <v>45.6</v>
+        <v>47.5</v>
       </c>
       <c r="E99" t="n">
-        <v>44.9</v>
+        <v>46.9</v>
       </c>
       <c r="F99" t="n">
-        <v>10872.4376</v>
+        <v>20684.65217852</v>
       </c>
       <c r="G99" t="n">
-        <v>-222739.86885182</v>
+        <v>14043.15335774999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4057,11 +4543,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4072,38 +4554,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>45.3</v>
+        <v>46.6</v>
       </c>
       <c r="C100" t="n">
-        <v>45.3</v>
+        <v>47.3</v>
       </c>
       <c r="D100" t="n">
-        <v>45.3</v>
+        <v>47.3</v>
       </c>
       <c r="E100" t="n">
-        <v>45.3</v>
+        <v>46.5</v>
       </c>
       <c r="F100" t="n">
-        <v>12625.6732</v>
+        <v>113295.0591</v>
       </c>
       <c r="G100" t="n">
-        <v>-235365.54205182</v>
+        <v>-99251.90574225</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>45.6</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4114,38 +4590,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>45.1</v>
+        <v>46.4</v>
       </c>
       <c r="C101" t="n">
-        <v>45.1</v>
+        <v>47</v>
       </c>
       <c r="D101" t="n">
-        <v>45.1</v>
+        <v>47</v>
       </c>
       <c r="E101" t="n">
-        <v>45.1</v>
+        <v>46.3</v>
       </c>
       <c r="F101" t="n">
-        <v>9854.013300000001</v>
+        <v>25787.6461</v>
       </c>
       <c r="G101" t="n">
-        <v>-245219.55535182</v>
+        <v>-125039.55184225</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>45.3</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4156,38 +4626,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>44.9</v>
+        <v>46.4</v>
       </c>
       <c r="C102" t="n">
-        <v>44.9</v>
+        <v>46.9</v>
       </c>
       <c r="D102" t="n">
-        <v>44.9</v>
+        <v>46.9</v>
       </c>
       <c r="E102" t="n">
-        <v>44.9</v>
+        <v>46.4</v>
       </c>
       <c r="F102" t="n">
-        <v>13000</v>
+        <v>8921.5144</v>
       </c>
       <c r="G102" t="n">
-        <v>-258219.55535182</v>
+        <v>-133961.06624225</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>45.1</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4198,38 +4662,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>44.9</v>
+        <v>46.6</v>
       </c>
       <c r="C103" t="n">
-        <v>45.6</v>
+        <v>46.7</v>
       </c>
       <c r="D103" t="n">
-        <v>45.7</v>
+        <v>46.7</v>
       </c>
       <c r="E103" t="n">
-        <v>44.8</v>
+        <v>46.3</v>
       </c>
       <c r="F103" t="n">
-        <v>10253</v>
+        <v>26949.4689</v>
       </c>
       <c r="G103" t="n">
-        <v>-247966.55535182</v>
+        <v>-160910.53514225</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>44.9</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4240,38 +4698,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>45.2</v>
+        <v>46.4</v>
       </c>
       <c r="C104" t="n">
-        <v>45.2</v>
+        <v>46.5</v>
       </c>
       <c r="D104" t="n">
-        <v>45.2</v>
+        <v>46.5</v>
       </c>
       <c r="E104" t="n">
-        <v>45.2</v>
+        <v>46.3</v>
       </c>
       <c r="F104" t="n">
-        <v>2900</v>
+        <v>39000</v>
       </c>
       <c r="G104" t="n">
-        <v>-250866.55535182</v>
+        <v>-199910.53514225</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>45.6</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4282,22 +4734,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>45.7</v>
+        <v>46.5</v>
       </c>
       <c r="C105" t="n">
-        <v>45.7</v>
+        <v>46.7</v>
       </c>
       <c r="D105" t="n">
-        <v>45.7</v>
+        <v>46.7</v>
       </c>
       <c r="E105" t="n">
-        <v>45.7</v>
+        <v>46.4</v>
       </c>
       <c r="F105" t="n">
-        <v>437.636</v>
+        <v>10685.3</v>
       </c>
       <c r="G105" t="n">
-        <v>-250428.91935182</v>
+        <v>-189225.23514225</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4307,11 +4759,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4322,22 +4770,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>45.5</v>
+        <v>46.7</v>
       </c>
       <c r="C106" t="n">
-        <v>45.5</v>
+        <v>45.8</v>
       </c>
       <c r="D106" t="n">
-        <v>45.5</v>
+        <v>47</v>
       </c>
       <c r="E106" t="n">
-        <v>45.5</v>
+        <v>45.8</v>
       </c>
       <c r="F106" t="n">
-        <v>3000</v>
+        <v>50171.74351276</v>
       </c>
       <c r="G106" t="n">
-        <v>-253428.91935182</v>
+        <v>-239396.97865501</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4347,15 +4795,1055 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
       <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="C107" t="n">
+        <v>47</v>
+      </c>
+      <c r="D107" t="n">
+        <v>47</v>
+      </c>
+      <c r="E107" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="F107" t="n">
+        <v>6873.47030319</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-232523.50835182</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C108" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="D108" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E108" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>9147.379999999999</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-241670.88835182</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="C109" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="D109" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E109" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-241670.88835182</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="C110" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="D110" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E110" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="F110" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-241670.88835182</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="C111" t="n">
+        <v>47</v>
+      </c>
+      <c r="D111" t="n">
+        <v>47</v>
+      </c>
+      <c r="E111" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="F111" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-238670.88835182</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="C112" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="D112" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="E112" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3950</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-242620.88835182</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="C113" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="D113" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="E113" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="F113" t="n">
+        <v>5427.8592</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-237193.02915182</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C114" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="D114" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="E114" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="F114" t="n">
+        <v>10574.7649</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-226618.26425182</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="C115" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="D115" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="E115" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="F115" t="n">
+        <v>25507.7234</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-252125.98765182</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="C116" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="D116" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="E116" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="F116" t="n">
+        <v>18260.0216</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-233865.96605182</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="C117" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="D117" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="E117" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F117" t="n">
+        <v>12548.7444</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-233865.96605182</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="C118" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="D118" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="E118" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="F118" t="n">
+        <v>10044.5963</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-243910.56235182</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>45</v>
+      </c>
+      <c r="D119" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>45</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3152.2345</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-247062.79685182</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="C120" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="E120" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>27624.0274</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-219438.76945182</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="E121" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>983.5051</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-219438.76945182</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="E122" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>9897.1805</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-219438.76945182</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="C123" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="D123" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="E123" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F123" t="n">
+        <v>12016.8826</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-207421.88685182</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="C124" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="D124" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="E124" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="F124" t="n">
+        <v>86967.3199</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-294389.20675182</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="C125" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="D125" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="E125" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="F125" t="n">
+        <v>10765</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-283624.20675182</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="C126" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="D126" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="E126" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="F126" t="n">
+        <v>53845.6842</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-229778.52255182</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="C127" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="D127" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="E127" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="F127" t="n">
+        <v>17911.0913</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-211867.43125182</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="D128" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="E128" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="F128" t="n">
+        <v>10872.4376</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-222739.86885182</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="C129" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="D129" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="E129" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="F129" t="n">
+        <v>12625.6732</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-235365.54205182</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>9854.013300000001</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-245219.55535182</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="C131" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="D131" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="E131" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="F131" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-258219.55535182</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="C132" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="D132" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="E132" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="F132" t="n">
+        <v>10253</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-247966.55535182</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="C133" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="D133" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="E133" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2900</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-250866.55535182</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="C134" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="D134" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="E134" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="F134" t="n">
+        <v>437.636</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-250428.91935182</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="D135" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="E135" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-253428.91935182</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-02 BackTest CRO.xlsx
+++ b/BackTest/2019-11-02 BackTest CRO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N135"/>
+  <dimension ref="A1:M135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>183161.3632</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>184112.5827</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J3" t="n">
         <v>45</v>
       </c>
-      <c r="K3" t="n">
-        <v>45</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>183259.6351</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>45.1</v>
       </c>
       <c r="J4" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>45</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>45</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>188259.6351</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J5" t="n">
         <v>45</v>
       </c>
-      <c r="K5" t="n">
-        <v>45</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +603,23 @@
         <v>154297.7286</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.1</v>
       </c>
       <c r="J6" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>45</v>
-      </c>
-      <c r="L6" t="inlineStr">
+        <v>45</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +644,23 @@
         <v>155703.1386</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>44.8</v>
       </c>
       <c r="J7" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>45</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>45</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,26 +685,23 @@
         <v>138482.4975</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>45.8</v>
       </c>
       <c r="J8" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>45</v>
-      </c>
-      <c r="L8" t="inlineStr">
+        <v>45</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -752,26 +726,23 @@
         <v>139373.2486</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>44.8</v>
       </c>
       <c r="J9" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="K9" t="n">
-        <v>45</v>
-      </c>
-      <c r="L9" t="inlineStr">
+        <v>45</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -796,26 +767,23 @@
         <v>140453.2486</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J10" t="n">
         <v>45</v>
       </c>
-      <c r="K10" t="n">
-        <v>45</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -840,26 +808,23 @@
         <v>139047.8386</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>45.1</v>
       </c>
       <c r="J11" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>45</v>
-      </c>
-      <c r="L11" t="inlineStr">
+        <v>45</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -884,26 +849,23 @@
         <v>139047.8386</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J12" t="n">
         <v>45</v>
       </c>
-      <c r="K12" t="n">
-        <v>45</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -928,26 +890,23 @@
         <v>139037.8386</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J13" t="n">
         <v>45</v>
       </c>
-      <c r="K13" t="n">
-        <v>45</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -972,26 +931,23 @@
         <v>129860.6952</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>44.9</v>
       </c>
       <c r="J14" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="K14" t="n">
-        <v>45</v>
-      </c>
-      <c r="L14" t="inlineStr">
+        <v>45</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1016,26 +972,23 @@
         <v>131860.6952</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>44.7</v>
       </c>
       <c r="J15" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="K15" t="n">
-        <v>45</v>
-      </c>
-      <c r="L15" t="inlineStr">
+        <v>45</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1060,26 +1013,23 @@
         <v>127860.6952</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>45.8</v>
       </c>
       <c r="J16" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>45</v>
-      </c>
-      <c r="L16" t="inlineStr">
+        <v>45</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1104,26 +1054,23 @@
         <v>128860.6952</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>45.6</v>
       </c>
       <c r="J17" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>45</v>
-      </c>
-      <c r="L17" t="inlineStr">
+        <v>45</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1148,24 +1095,21 @@
         <v>128860.6952</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>45</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>45</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1.010555555555556</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1190,26 +1134,15 @@
         <v>127908.5213</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="K19" t="n">
-        <v>45</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1234,26 +1167,15 @@
         <v>121549.3862</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>45</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1278,26 +1200,15 @@
         <v>115174.5658</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>45</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1322,26 +1233,15 @@
         <v>115174.5658</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>45</v>
-      </c>
-      <c r="K22" t="n">
-        <v>45</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1366,26 +1266,21 @@
         <v>127174.5658</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>45</v>
-      </c>
-      <c r="K23" t="n">
-        <v>45</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1410,26 +1305,19 @@
         <v>136341.2652</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="K24" t="n">
-        <v>45</v>
-      </c>
-      <c r="L24" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1454,26 +1342,19 @@
         <v>134935.8552</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="K25" t="n">
-        <v>45</v>
-      </c>
-      <c r="L25" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1498,26 +1379,21 @@
         <v>134935.8552</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
         <v>44.8</v>
       </c>
-      <c r="K26" t="n">
-        <v>45</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1542,26 +1418,19 @@
         <v>127436.2551</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="K27" t="n">
-        <v>45</v>
-      </c>
-      <c r="L27" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1586,26 +1455,19 @@
         <v>127931.9073</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>44.6</v>
-      </c>
-      <c r="K28" t="n">
-        <v>45</v>
-      </c>
-      <c r="L28" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1630,26 +1492,19 @@
         <v>127931.9073</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>45</v>
-      </c>
-      <c r="L29" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1674,26 +1529,19 @@
         <v>130124.84802866</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>45</v>
-      </c>
-      <c r="L30" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1720,22 +1568,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>45</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1760,26 +1603,19 @@
         <v>72068.13975731996</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="K32" t="n">
-        <v>45</v>
-      </c>
-      <c r="L32" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1804,26 +1640,19 @@
         <v>72068.13975731996</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="K33" t="n">
-        <v>45</v>
-      </c>
-      <c r="L33" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1848,26 +1677,19 @@
         <v>72068.13975731996</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="K34" t="n">
-        <v>45</v>
-      </c>
-      <c r="L34" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1892,26 +1714,19 @@
         <v>72068.13975731996</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="K35" t="n">
-        <v>45</v>
-      </c>
-      <c r="L35" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1936,26 +1751,19 @@
         <v>72068.13975731996</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="K36" t="n">
-        <v>45</v>
-      </c>
-      <c r="L36" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1980,26 +1788,21 @@
         <v>72068.13975731996</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
         <v>44.7</v>
       </c>
-      <c r="K37" t="n">
-        <v>45</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2024,26 +1827,21 @@
         <v>60883.97205731997</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
         <v>44.7</v>
       </c>
-      <c r="K38" t="n">
-        <v>45</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2068,26 +1866,21 @@
         <v>40426.32435731997</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
         <v>44.6</v>
       </c>
-      <c r="K39" t="n">
-        <v>45</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2112,26 +1905,21 @@
         <v>40426.32435731997</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
         <v>44.4</v>
       </c>
-      <c r="K40" t="n">
-        <v>45</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2156,26 +1944,21 @@
         <v>40426.32435731997</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
         <v>44.4</v>
       </c>
-      <c r="K41" t="n">
-        <v>45</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2200,26 +1983,21 @@
         <v>45426.32435731997</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
         <v>44.4</v>
       </c>
-      <c r="K42" t="n">
-        <v>45</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2244,26 +2022,21 @@
         <v>45436.32435731997</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
         <v>44.9</v>
       </c>
-      <c r="K43" t="n">
-        <v>45</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2288,26 +2061,19 @@
         <v>45436.32435731997</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="K44" t="n">
-        <v>45</v>
-      </c>
-      <c r="L44" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2334,22 +2100,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>45</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2374,26 +2135,19 @@
         <v>44903.14995731996</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="K46" t="n">
-        <v>45</v>
-      </c>
-      <c r="L46" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2418,26 +2172,19 @@
         <v>43793.14995731996</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="K47" t="n">
-        <v>45</v>
-      </c>
-      <c r="L47" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2462,26 +2209,19 @@
         <v>45648.95725731996</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="K48" t="n">
-        <v>45</v>
-      </c>
-      <c r="L48" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2508,22 +2248,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>45</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2550,22 +2285,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>45</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2592,22 +2322,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>45</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2634,22 +2359,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>45</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2676,22 +2396,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>45</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2718,22 +2433,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>45</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2760,22 +2470,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>45</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2802,22 +2507,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>45</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2844,22 +2544,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>45</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2886,22 +2581,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>45</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2928,22 +2618,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>45</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2970,22 +2655,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>45</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3012,22 +2692,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>45</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3054,22 +2729,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>45</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3096,22 +2766,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>45</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3138,22 +2803,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>45</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3178,24 +2838,17 @@
         <v>132729.76067923</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>45</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3220,24 +2873,15 @@
         <v>83727.89907922997</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>45</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3264,22 +2908,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>45</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3304,24 +2939,15 @@
         <v>80853.05477922998</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>45</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3346,24 +2972,15 @@
         <v>88033.41097922997</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>45</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3388,24 +3005,15 @@
         <v>31409.66697922997</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>45</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3430,24 +3038,15 @@
         <v>21453.89487922997</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>45</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3472,24 +3071,15 @@
         <v>22018.84707922997</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>45</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3516,22 +3106,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>45</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3556,24 +3137,15 @@
         <v>40451.24547922997</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>45</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3600,22 +3172,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>45</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3640,24 +3203,15 @@
         <v>-18434.01932077003</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>45</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3684,22 +3238,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>45</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3724,24 +3269,15 @@
         <v>-21015.22262077003</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>45</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3768,22 +3304,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>45</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3808,24 +3335,15 @@
         <v>-9156.821720770029</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>45</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3852,22 +3370,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>45</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3894,22 +3403,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>45</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3936,22 +3436,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>45</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3978,22 +3469,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>45</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4018,24 +3500,15 @@
         <v>131576.03867923</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>45</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4060,26 +3533,15 @@
         <v>172955.04287923</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>45</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1.097222222222222</v>
-      </c>
-      <c r="N86" t="n">
-        <v>1.002222222222222</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4106,16 +3568,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4140,18 +3599,15 @@
         <v>54510.42987922998</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4178,16 +3634,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4212,18 +3665,15 @@
         <v>121708.55947923</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4248,18 +3698,15 @@
         <v>77917.43937923</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4284,18 +3731,15 @@
         <v>74919.57717922999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4322,16 +3766,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4358,16 +3799,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4394,16 +3832,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4430,16 +3865,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4466,16 +3898,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4502,16 +3931,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4536,18 +3962,15 @@
         <v>14043.15335774999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4574,16 +3997,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4608,18 +4028,15 @@
         <v>-125039.55184225</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4646,16 +4063,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4680,18 +4094,15 @@
         <v>-160910.53514225</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4718,16 +4129,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4754,16 +4162,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4790,16 +4195,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4824,18 +4226,15 @@
         <v>-232523.50835182</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4862,16 +4261,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4898,16 +4294,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4934,16 +4327,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4970,16 +4360,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5006,16 +4393,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5042,16 +4426,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5078,16 +4459,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5112,18 +4490,15 @@
         <v>-252125.98765182</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5150,16 +4525,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5186,16 +4558,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5222,16 +4591,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5256,18 +4622,15 @@
         <v>-247062.79685182</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5294,16 +4657,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5330,16 +4690,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5366,16 +4723,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5402,16 +4756,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5438,16 +4789,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5474,16 +4822,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5510,16 +4855,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5546,16 +4888,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5582,16 +4921,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5618,16 +4954,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5654,16 +4987,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5688,18 +5018,15 @@
         <v>-258219.55535182</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5724,18 +5051,15 @@
         <v>-247966.55535182</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5762,16 +5086,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5798,16 +5119,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5834,18 +5152,15 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest CRO.xlsx
+++ b/BackTest/2019-11-02 BackTest CRO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>183161.3632</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>184112.5827</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>45</v>
@@ -521,7 +521,7 @@
         <v>183259.6351</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>45.1</v>
@@ -562,7 +562,7 @@
         <v>188259.6351</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>45</v>
@@ -603,7 +603,7 @@
         <v>154297.7286</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>45.1</v>
@@ -644,7 +644,7 @@
         <v>155703.1386</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>44.8</v>
@@ -685,11 +685,9 @@
         <v>138482.4975</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>45.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>45</v>
       </c>
@@ -726,11 +724,9 @@
         <v>139373.2486</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>44.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>45</v>
       </c>
@@ -767,11 +763,9 @@
         <v>140453.2486</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>45</v>
       </c>
@@ -808,11 +802,9 @@
         <v>139047.8386</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>45.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>45</v>
       </c>
@@ -849,11 +841,9 @@
         <v>139047.8386</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>45</v>
       </c>
@@ -890,11 +880,9 @@
         <v>139037.8386</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>45</v>
       </c>
@@ -931,11 +919,9 @@
         <v>129860.6952</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>44.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>45</v>
       </c>
@@ -972,11 +958,9 @@
         <v>131860.6952</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>44.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>45</v>
       </c>
@@ -1013,11 +997,9 @@
         <v>127860.6952</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>45.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>45</v>
       </c>
@@ -1054,11 +1036,9 @@
         <v>128860.6952</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>45.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>45</v>
       </c>
@@ -1095,7 +1075,7 @@
         <v>128860.6952</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
@@ -1103,11 +1083,11 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.010555555555556</v>
+        <v>1</v>
       </c>
       <c r="M18" t="inlineStr"/>
     </row>
@@ -1137,8 +1117,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>45</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1170,8 +1156,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>45</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1203,8 +1195,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>45</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1236,8 +1234,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>45</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1266,15 +1270,15 @@
         <v>127174.5658</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>45</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>45</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1308,7 +1312,9 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>45</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1345,7 +1351,9 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>45</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1379,12 +1387,12 @@
         <v>134935.8552</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>45</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1421,7 +1429,9 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>45</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1455,17 +1465,19 @@
         <v>127931.9073</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>45</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0.9972222222222223</v>
       </c>
       <c r="M28" t="inlineStr"/>
     </row>
@@ -1492,15 +1504,11 @@
         <v>127931.9073</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1533,11 +1541,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1570,11 +1574,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1607,11 +1607,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1644,11 +1640,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1681,11 +1673,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1718,11 +1706,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1755,11 +1739,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1788,17 +1768,11 @@
         <v>72068.13975731996</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>44.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1827,17 +1801,11 @@
         <v>60883.97205731997</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>44.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1866,17 +1834,11 @@
         <v>40426.32435731997</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>44.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1905,17 +1867,11 @@
         <v>40426.32435731997</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>44.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1944,17 +1900,11 @@
         <v>40426.32435731997</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>44.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1983,17 +1933,11 @@
         <v>45426.32435731997</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>44.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2022,17 +1966,11 @@
         <v>45436.32435731997</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>44.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2065,11 +2003,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2102,11 +2036,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2139,11 +2069,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2176,11 +2102,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2213,11 +2135,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2250,11 +2168,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2287,11 +2201,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2324,11 +2234,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2361,11 +2267,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2300,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2435,11 +2333,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2472,11 +2366,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2509,11 +2399,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2546,11 +2432,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2583,11 +2465,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2620,11 +2498,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2657,11 +2531,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2694,11 +2564,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2731,11 +2597,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2768,11 +2630,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2805,11 +2663,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2838,16 +2692,14 @@
         <v>132729.76067923</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
       <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
@@ -2873,7 +2725,7 @@
         <v>83727.89907922997</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2939,7 +2791,7 @@
         <v>80853.05477922998</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2972,7 +2824,7 @@
         <v>88033.41097922997</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3005,7 +2857,7 @@
         <v>31409.66697922997</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3038,7 +2890,7 @@
         <v>21453.89487922997</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3071,7 +2923,7 @@
         <v>22018.84707922997</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3137,7 +2989,7 @@
         <v>40451.24547922997</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3203,7 +3055,7 @@
         <v>-18434.01932077003</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3269,7 +3121,7 @@
         <v>-21015.22262077003</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3335,7 +3187,7 @@
         <v>-9156.821720770029</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3500,7 +3352,7 @@
         <v>131576.03867923</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3533,7 +3385,7 @@
         <v>172955.04287923</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3599,7 +3451,7 @@
         <v>54510.42987922998</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3632,7 +3484,7 @@
         <v>105410.01157923</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3665,7 +3517,7 @@
         <v>121708.55947923</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3698,7 +3550,7 @@
         <v>77917.43937923</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3731,7 +3583,7 @@
         <v>74919.57717922999</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3797,7 +3649,7 @@
         <v>-8096.783420770007</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3863,7 +3715,7 @@
         <v>-15465.43072077001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3896,7 +3748,7 @@
         <v>-17565.43072077001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3929,7 +3781,7 @@
         <v>-6641.498820770008</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3962,7 +3814,7 @@
         <v>14043.15335774999</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3995,7 +3847,7 @@
         <v>-99251.90574225</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4028,7 +3880,7 @@
         <v>-125039.55184225</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4061,7 +3913,7 @@
         <v>-133961.06624225</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4094,7 +3946,7 @@
         <v>-160910.53514225</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4127,7 +3979,7 @@
         <v>-199910.53514225</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4160,7 +4012,7 @@
         <v>-189225.23514225</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4193,7 +4045,7 @@
         <v>-239396.97865501</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4226,7 +4078,7 @@
         <v>-232523.50835182</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4259,7 +4111,7 @@
         <v>-241670.88835182</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4292,7 +4144,7 @@
         <v>-241670.88835182</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4325,7 +4177,7 @@
         <v>-241670.88835182</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4358,7 +4210,7 @@
         <v>-238670.88835182</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4391,7 +4243,7 @@
         <v>-242620.88835182</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4424,7 +4276,7 @@
         <v>-237193.02915182</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4457,7 +4309,7 @@
         <v>-226618.26425182</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4490,7 +4342,7 @@
         <v>-252125.98765182</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4622,7 +4474,7 @@
         <v>-247062.79685182</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -5018,7 +4870,7 @@
         <v>-258219.55535182</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5051,7 +4903,7 @@
         <v>-247966.55535182</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5084,10 +4936,14 @@
         <v>-250866.55535182</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="J133" t="n">
+        <v>45.6</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
@@ -5120,8 +4976,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5150,17 +5012,25 @@
         <v>-253428.91935182</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="J135" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
       <c r="M135" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest CRO.xlsx
+++ b/BackTest/2019-11-02 BackTest CRO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>183161.3632</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>184112.5827</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>45</v>
-      </c>
-      <c r="J3" t="n">
-        <v>45</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>183259.6351</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>45</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>188259.6351</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>45</v>
-      </c>
-      <c r="J5" t="n">
-        <v>45</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>154297.7286</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>45</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>155703.1386</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>45</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,17 +649,11 @@
         <v>138482.4975</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>45</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -724,17 +682,11 @@
         <v>139373.2486</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>45</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -763,17 +715,11 @@
         <v>140453.2486</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>45</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -802,17 +748,11 @@
         <v>139047.8386</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>45</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -844,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>45</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -883,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>45</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -922,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>45</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -961,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>45</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1000,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>45</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1039,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>45</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1078,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>45</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1117,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>45</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1156,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>45</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1195,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>45</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1234,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>45</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1273,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>45</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1312,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>45</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1351,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>45</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1390,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>45</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1429,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>45</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1465,19 +1309,13 @@
         <v>127931.9073</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>45</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>0.9972222222222223</v>
+        <v>1</v>
       </c>
       <c r="M28" t="inlineStr"/>
     </row>
@@ -1504,7 +1342,7 @@
         <v>127931.9073</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -2659,7 +2497,7 @@
         <v>124730.76067923</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2692,7 +2530,7 @@
         <v>132729.76067923</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2725,7 +2563,7 @@
         <v>83727.89907922997</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2758,7 +2596,7 @@
         <v>83727.89907922997</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2890,7 +2728,7 @@
         <v>21453.89487922997</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2923,7 +2761,7 @@
         <v>22018.84707922997</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2956,7 +2794,7 @@
         <v>40451.24547922997</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2989,7 +2827,7 @@
         <v>40451.24547922997</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3022,7 +2860,7 @@
         <v>27039.79357922997</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3055,7 +2893,7 @@
         <v>-18434.01932077003</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3088,7 +2926,7 @@
         <v>-21015.22262077003</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3121,7 +2959,7 @@
         <v>-21015.22262077003</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3154,7 +2992,7 @@
         <v>-21015.22262077003</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3187,7 +3025,7 @@
         <v>-9156.821720770029</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3220,7 +3058,7 @@
         <v>-23621.53712077003</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3253,7 +3091,7 @@
         <v>-22621.53712077003</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3286,7 +3124,7 @@
         <v>-11462.94002077003</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3319,7 +3157,7 @@
         <v>192169.41607923</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3352,7 +3190,7 @@
         <v>131576.03867923</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3385,7 +3223,7 @@
         <v>172955.04287923</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3418,7 +3256,7 @@
         <v>165570.39787923</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3451,7 +3289,7 @@
         <v>54510.42987922998</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3484,7 +3322,7 @@
         <v>105410.01157923</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3517,7 +3355,7 @@
         <v>121708.55947923</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3616,7 +3454,7 @@
         <v>35143.63177923</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3649,7 +3487,7 @@
         <v>-8096.783420770007</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3715,7 +3553,7 @@
         <v>-15465.43072077001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3748,7 +3586,7 @@
         <v>-17565.43072077001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3847,7 +3685,7 @@
         <v>-99251.90574225</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3880,7 +3718,7 @@
         <v>-125039.55184225</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3913,7 +3751,7 @@
         <v>-133961.06624225</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3946,7 +3784,7 @@
         <v>-160910.53514225</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3979,7 +3817,7 @@
         <v>-199910.53514225</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4012,7 +3850,7 @@
         <v>-189225.23514225</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4375,7 +4213,7 @@
         <v>-233865.96605182</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4408,7 +4246,7 @@
         <v>-233865.96605182</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4936,14 +4774,10 @@
         <v>-250866.55535182</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="J133" t="n">
-        <v>45.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
@@ -4976,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5018,19 +4846,15 @@
         <v>45.7</v>
       </c>
       <c r="J135" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>45.7</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
       <c r="M135" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest CRO.xlsx
+++ b/BackTest/2019-11-02 BackTest CRO.xlsx
@@ -451,7 +451,7 @@
         <v>183161.3632</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>184112.5827</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>183259.6351</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>188259.6351</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>154297.7286</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>155703.1386</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>138482.4975</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>139373.2486</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>140453.2486</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>139047.8386</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>124730.76067923</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>132729.76067923</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>83727.89907922997</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>83727.89907922997</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>21453.89487922997</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>22018.84707922997</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>40451.24547922997</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>40451.24547922997</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>27039.79357922997</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-18434.01932077003</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-21015.22262077003</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-21015.22262077003</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-21015.22262077003</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-9156.821720770029</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-23621.53712077003</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-22621.53712077003</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-11462.94002077003</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>192169.41607923</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>54510.42987922998</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>105410.01157923</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>121708.55947923</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>74919.57717922999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-8096.783420770007</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-353.7740207700072</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-6641.498820770008</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>14043.15335774999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-239396.97865501</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-232523.50835182</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-241670.88835182</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-241670.88835182</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-241670.88835182</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-238670.88835182</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-242620.88835182</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-237193.02915182</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-226618.26425182</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-252125.98765182</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-233865.96605182</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-233865.96605182</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4708,10 +4708,14 @@
         <v>-258219.55535182</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>45.1</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
@@ -4741,11 +4745,19 @@
         <v>-247966.55535182</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="J132" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +4786,19 @@
         <v>-250866.55535182</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="J133" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +4827,19 @@
         <v>-250428.91935182</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="J134" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4846,9 +4874,13 @@
         <v>45.7</v>
       </c>
       <c r="J135" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
+        <v>45.1</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-02 BackTest CRO.xlsx
+++ b/BackTest/2019-11-02 BackTest CRO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M135"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1120</v>
       </c>
       <c r="G2" t="n">
-        <v>183161.3632</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>951.2195</v>
       </c>
       <c r="G3" t="n">
-        <v>184112.5827</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="I3" t="n">
+        <v>45</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,23 @@
         <v>852.9476</v>
       </c>
       <c r="G4" t="n">
-        <v>183259.6351</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>45.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>45</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,23 @@
         <v>5000</v>
       </c>
       <c r="G5" t="n">
-        <v>188259.6351</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="I5" t="n">
+        <v>45</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +583,23 @@
         <v>33961.9065</v>
       </c>
       <c r="G6" t="n">
-        <v>154297.7286</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>45.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>45</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +621,23 @@
         <v>1405.41</v>
       </c>
       <c r="G7" t="n">
-        <v>155703.1386</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>44.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>45</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +659,23 @@
         <v>17220.6411</v>
       </c>
       <c r="G8" t="n">
-        <v>138482.4975</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>45.8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>45</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +697,23 @@
         <v>890.7511</v>
       </c>
       <c r="G9" t="n">
-        <v>139373.2486</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>44.8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>45</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +735,23 @@
         <v>1080</v>
       </c>
       <c r="G10" t="n">
-        <v>140453.2486</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="I10" t="n">
+        <v>45</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +773,23 @@
         <v>1405.41</v>
       </c>
       <c r="G11" t="n">
-        <v>139047.8386</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>45.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>45</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +811,23 @@
         <v>816.8122</v>
       </c>
       <c r="G12" t="n">
-        <v>139047.8386</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="I12" t="n">
+        <v>45</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +849,23 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>139037.8386</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="I13" t="n">
+        <v>45</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +887,23 @@
         <v>9177.143400000001</v>
       </c>
       <c r="G14" t="n">
-        <v>129860.6952</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>44.9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>45</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +925,23 @@
         <v>2000</v>
       </c>
       <c r="G15" t="n">
-        <v>131860.6952</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>44.7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +963,21 @@
         <v>4000</v>
       </c>
       <c r="G16" t="n">
-        <v>127860.6952</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>45</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +999,21 @@
         <v>1000</v>
       </c>
       <c r="G17" t="n">
-        <v>128860.6952</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>45</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1035,21 @@
         <v>1000</v>
       </c>
       <c r="G18" t="n">
-        <v>128860.6952</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>45</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1071,21 @@
         <v>952.1739</v>
       </c>
       <c r="G19" t="n">
-        <v>127908.5213</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>45</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1107,23 @@
         <v>6359.1351</v>
       </c>
       <c r="G20" t="n">
-        <v>121549.3862</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>45.2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>45</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1145,23 @@
         <v>6374.8204</v>
       </c>
       <c r="G21" t="n">
-        <v>115174.5658</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>45.1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>45</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1183,23 @@
         <v>1297.4351</v>
       </c>
       <c r="G22" t="n">
-        <v>115174.5658</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1221,21 @@
         <v>12000</v>
       </c>
       <c r="G23" t="n">
-        <v>127174.5658</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>45</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1257,21 @@
         <v>9166.6994</v>
       </c>
       <c r="G24" t="n">
-        <v>136341.2652</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1293,21 @@
         <v>1405.41</v>
       </c>
       <c r="G25" t="n">
-        <v>134935.8552</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>45</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1329,21 @@
         <v>2401.2996</v>
       </c>
       <c r="G26" t="n">
-        <v>134935.8552</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>45</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1365,23 @@
         <v>7499.6001</v>
       </c>
       <c r="G27" t="n">
-        <v>127436.2551</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>44.8</v>
+      </c>
+      <c r="I27" t="n">
+        <v>45</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1403,23 @@
         <v>495.6522</v>
       </c>
       <c r="G28" t="n">
-        <v>127931.9073</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>44.6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>45</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1441,23 @@
         <v>564.7826</v>
       </c>
       <c r="G29" t="n">
-        <v>127931.9073</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>45.1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>45</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1479,23 @@
         <v>2192.94072866</v>
       </c>
       <c r="G30" t="n">
-        <v>130124.84802866</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>45.1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>45</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1517,21 @@
         <v>58056.70827134</v>
       </c>
       <c r="G31" t="n">
-        <v>72068.13975731996</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>45</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1553,21 @@
         <v>3852</v>
       </c>
       <c r="G32" t="n">
-        <v>72068.13975731996</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>45</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1589,21 @@
         <v>2770</v>
       </c>
       <c r="G33" t="n">
-        <v>72068.13975731996</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>45</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1625,21 @@
         <v>3564.0826</v>
       </c>
       <c r="G34" t="n">
-        <v>72068.13975731996</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>45</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1661,21 @@
         <v>2679</v>
       </c>
       <c r="G35" t="n">
-        <v>72068.13975731996</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>45</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1697,21 @@
         <v>690</v>
       </c>
       <c r="G36" t="n">
-        <v>72068.13975731996</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>45</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1733,23 @@
         <v>7158.219</v>
       </c>
       <c r="G37" t="n">
-        <v>72068.13975731996</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>44.7</v>
+      </c>
+      <c r="I37" t="n">
+        <v>45</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1771,23 @@
         <v>11184.1677</v>
       </c>
       <c r="G38" t="n">
-        <v>60883.97205731997</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>44.7</v>
+      </c>
+      <c r="I38" t="n">
+        <v>45</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1809,23 @@
         <v>20457.6477</v>
       </c>
       <c r="G39" t="n">
-        <v>40426.32435731997</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>44.6</v>
+      </c>
+      <c r="I39" t="n">
+        <v>45</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1847,23 @@
         <v>2672.1932</v>
       </c>
       <c r="G40" t="n">
-        <v>40426.32435731997</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>44.4</v>
+      </c>
+      <c r="I40" t="n">
+        <v>45</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1885,23 @@
         <v>2672.1932</v>
       </c>
       <c r="G41" t="n">
-        <v>40426.32435731997</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>44.4</v>
+      </c>
+      <c r="I41" t="n">
+        <v>45</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1923,23 @@
         <v>5000</v>
       </c>
       <c r="G42" t="n">
-        <v>45426.32435731997</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>44.4</v>
+      </c>
+      <c r="I42" t="n">
+        <v>45</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1961,23 @@
         <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>45436.32435731997</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>44.9</v>
+      </c>
+      <c r="I43" t="n">
+        <v>45</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1999,21 @@
         <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>45436.32435731997</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>45</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +2035,21 @@
         <v>533.1744</v>
       </c>
       <c r="G45" t="n">
-        <v>44903.14995731996</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>45</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +2071,23 @@
         <v>34.8837</v>
       </c>
       <c r="G46" t="n">
-        <v>44903.14995731996</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>44.5</v>
+      </c>
+      <c r="I46" t="n">
+        <v>45</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2109,23 @@
         <v>1110</v>
       </c>
       <c r="G47" t="n">
-        <v>43793.14995731996</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>44.5</v>
+      </c>
+      <c r="I47" t="n">
+        <v>45</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2147,21 @@
         <v>1855.8073</v>
       </c>
       <c r="G48" t="n">
-        <v>45648.95725731996</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>45</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2183,21 @@
         <v>1578</v>
       </c>
       <c r="G49" t="n">
-        <v>47226.95725731996</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>45</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2219,21 @@
         <v>22</v>
       </c>
       <c r="G50" t="n">
-        <v>47204.95725731996</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>45</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2255,21 @@
         <v>1422</v>
       </c>
       <c r="G51" t="n">
-        <v>48626.95725731996</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>45</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2291,21 @@
         <v>159</v>
       </c>
       <c r="G52" t="n">
-        <v>48626.95725731996</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>45</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2327,21 @@
         <v>158.6025</v>
       </c>
       <c r="G53" t="n">
-        <v>48468.35475731996</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>45</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2363,21 @@
         <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>48468.35475731996</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>45</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2399,21 @@
         <v>1000.657</v>
       </c>
       <c r="G55" t="n">
-        <v>47467.69775731996</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>45</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2435,21 @@
         <v>1319</v>
       </c>
       <c r="G56" t="n">
-        <v>48786.69775731996</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>45</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2471,21 @@
         <v>2503</v>
       </c>
       <c r="G57" t="n">
-        <v>48786.69775731996</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>45</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2507,21 @@
         <v>7477</v>
       </c>
       <c r="G58" t="n">
-        <v>56263.69775731996</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>45</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2543,21 @@
         <v>51.20430107</v>
       </c>
       <c r="G59" t="n">
-        <v>56263.69775731996</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>45</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2579,21 @@
         <v>5669</v>
       </c>
       <c r="G60" t="n">
-        <v>56263.69775731996</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>45</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2615,21 @@
         <v>2781.722</v>
       </c>
       <c r="G61" t="n">
-        <v>53481.97575731996</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>45</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2651,21 @@
         <v>1172</v>
       </c>
       <c r="G62" t="n">
-        <v>54653.97575731996</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>45</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2687,21 @@
         <v>70076.78492191</v>
       </c>
       <c r="G63" t="n">
-        <v>124730.76067923</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>45</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2723,21 @@
         <v>33</v>
       </c>
       <c r="G64" t="n">
-        <v>124730.76067923</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>45</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2759,21 @@
         <v>7999</v>
       </c>
       <c r="G65" t="n">
-        <v>132729.76067923</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>45</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2795,21 @@
         <v>49001.8616</v>
       </c>
       <c r="G66" t="n">
-        <v>83727.89907922997</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>45</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2831,21 @@
         <v>31660.3568</v>
       </c>
       <c r="G67" t="n">
-        <v>83727.89907922997</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>45</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2867,21 @@
         <v>2874.8443</v>
       </c>
       <c r="G68" t="n">
-        <v>80853.05477922998</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>45</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2903,21 @@
         <v>7180.3562</v>
       </c>
       <c r="G69" t="n">
-        <v>88033.41097922997</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>45</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2939,21 @@
         <v>56623.744</v>
       </c>
       <c r="G70" t="n">
-        <v>31409.66697922997</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>45</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2975,21 @@
         <v>9955.7721</v>
       </c>
       <c r="G71" t="n">
-        <v>21453.89487922997</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>45</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +3011,21 @@
         <v>564.9521999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>22018.84707922997</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>45</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +3047,21 @@
         <v>18432.3984</v>
       </c>
       <c r="G73" t="n">
-        <v>40451.24547922997</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>45</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +3083,21 @@
         <v>929.0739</v>
       </c>
       <c r="G74" t="n">
-        <v>40451.24547922997</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>45</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +3119,21 @@
         <v>13411.4519</v>
       </c>
       <c r="G75" t="n">
-        <v>27039.79357922997</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>45</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +3155,21 @@
         <v>45473.8129</v>
       </c>
       <c r="G76" t="n">
-        <v>-18434.01932077003</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>45</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +3191,21 @@
         <v>2581.2033</v>
       </c>
       <c r="G77" t="n">
-        <v>-21015.22262077003</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>45</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3227,21 @@
         <v>2808.6957</v>
       </c>
       <c r="G78" t="n">
-        <v>-21015.22262077003</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>45</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3263,21 @@
         <v>9805.077300000001</v>
       </c>
       <c r="G79" t="n">
-        <v>-21015.22262077003</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>45</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3299,21 @@
         <v>11858.4009</v>
       </c>
       <c r="G80" t="n">
-        <v>-9156.821720770029</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>45</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3335,21 @@
         <v>14464.7154</v>
       </c>
       <c r="G81" t="n">
-        <v>-23621.53712077003</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>45</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3371,21 @@
         <v>1000</v>
       </c>
       <c r="G82" t="n">
-        <v>-22621.53712077003</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>45</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3407,21 @@
         <v>11158.5971</v>
       </c>
       <c r="G83" t="n">
-        <v>-11462.94002077003</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>45</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3443,21 @@
         <v>203632.3561</v>
       </c>
       <c r="G84" t="n">
-        <v>192169.41607923</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>45</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3479,21 @@
         <v>60593.3774</v>
       </c>
       <c r="G85" t="n">
-        <v>131576.03867923</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>45</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3515,21 @@
         <v>41379.0042</v>
       </c>
       <c r="G86" t="n">
-        <v>172955.04287923</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>45</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3551,21 @@
         <v>7384.645</v>
       </c>
       <c r="G87" t="n">
-        <v>165570.39787923</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>45</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3587,21 @@
         <v>111059.968</v>
       </c>
       <c r="G88" t="n">
-        <v>54510.42987922998</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>45</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3623,21 @@
         <v>50899.5817</v>
       </c>
       <c r="G89" t="n">
-        <v>105410.01157923</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>45</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3659,21 @@
         <v>16298.5479</v>
       </c>
       <c r="G90" t="n">
-        <v>121708.55947923</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>45</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3695,23 @@
         <v>43791.1201</v>
       </c>
       <c r="G91" t="n">
-        <v>77917.43937923</v>
-      </c>
-      <c r="H91" t="n">
         <v>2</v>
       </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>45</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1.092777777777778</v>
+      </c>
       <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>1.002222222222222</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3733,15 @@
         <v>2997.8622</v>
       </c>
       <c r="G92" t="n">
-        <v>74919.57717922999</v>
-      </c>
-      <c r="H92" t="n">
         <v>2</v>
       </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3763,15 @@
         <v>39775.9454</v>
       </c>
       <c r="G93" t="n">
-        <v>35143.63177923</v>
-      </c>
-      <c r="H93" t="n">
         <v>2</v>
       </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3793,15 @@
         <v>43240.4152</v>
       </c>
       <c r="G94" t="n">
-        <v>-8096.783420770007</v>
-      </c>
-      <c r="H94" t="n">
         <v>2</v>
       </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3823,15 @@
         <v>7743.0094</v>
       </c>
       <c r="G95" t="n">
-        <v>-353.7740207700072</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3853,15 @@
         <v>15111.6567</v>
       </c>
       <c r="G96" t="n">
-        <v>-15465.43072077001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3883,15 @@
         <v>2100</v>
       </c>
       <c r="G97" t="n">
-        <v>-17565.43072077001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3913,15 @@
         <v>10923.9319</v>
       </c>
       <c r="G98" t="n">
-        <v>-6641.498820770008</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3943,15 @@
         <v>20684.65217852</v>
       </c>
       <c r="G99" t="n">
-        <v>14043.15335774999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3973,15 @@
         <v>113295.0591</v>
       </c>
       <c r="G100" t="n">
-        <v>-99251.90574225</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +4003,15 @@
         <v>25787.6461</v>
       </c>
       <c r="G101" t="n">
-        <v>-125039.55184225</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +4033,15 @@
         <v>8921.5144</v>
       </c>
       <c r="G102" t="n">
-        <v>-133961.06624225</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +4063,15 @@
         <v>26949.4689</v>
       </c>
       <c r="G103" t="n">
-        <v>-160910.53514225</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +4093,15 @@
         <v>39000</v>
       </c>
       <c r="G104" t="n">
-        <v>-199910.53514225</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +4123,15 @@
         <v>10685.3</v>
       </c>
       <c r="G105" t="n">
-        <v>-189225.23514225</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +4153,15 @@
         <v>50171.74351276</v>
       </c>
       <c r="G106" t="n">
-        <v>-239396.97865501</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +4183,15 @@
         <v>6873.47030319</v>
       </c>
       <c r="G107" t="n">
-        <v>-232523.50835182</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +4213,15 @@
         <v>9147.379999999999</v>
       </c>
       <c r="G108" t="n">
-        <v>-241670.88835182</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +4243,15 @@
         <v>1000</v>
       </c>
       <c r="G109" t="n">
-        <v>-241670.88835182</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +4273,15 @@
         <v>3000</v>
       </c>
       <c r="G110" t="n">
-        <v>-241670.88835182</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4303,15 @@
         <v>3000</v>
       </c>
       <c r="G111" t="n">
-        <v>-238670.88835182</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4333,15 @@
         <v>3950</v>
       </c>
       <c r="G112" t="n">
-        <v>-242620.88835182</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4363,15 @@
         <v>5427.8592</v>
       </c>
       <c r="G113" t="n">
-        <v>-237193.02915182</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4393,15 @@
         <v>10574.7649</v>
       </c>
       <c r="G114" t="n">
-        <v>-226618.26425182</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4423,15 @@
         <v>25507.7234</v>
       </c>
       <c r="G115" t="n">
-        <v>-252125.98765182</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4453,15 @@
         <v>18260.0216</v>
       </c>
       <c r="G116" t="n">
-        <v>-233865.96605182</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4483,15 @@
         <v>12548.7444</v>
       </c>
       <c r="G117" t="n">
-        <v>-233865.96605182</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4513,15 @@
         <v>10044.5963</v>
       </c>
       <c r="G118" t="n">
-        <v>-243910.56235182</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4543,15 @@
         <v>3152.2345</v>
       </c>
       <c r="G119" t="n">
-        <v>-247062.79685182</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4573,15 @@
         <v>27624.0274</v>
       </c>
       <c r="G120" t="n">
-        <v>-219438.76945182</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4603,15 @@
         <v>983.5051</v>
       </c>
       <c r="G121" t="n">
-        <v>-219438.76945182</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4633,15 @@
         <v>9897.1805</v>
       </c>
       <c r="G122" t="n">
-        <v>-219438.76945182</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4663,15 @@
         <v>12016.8826</v>
       </c>
       <c r="G123" t="n">
-        <v>-207421.88685182</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4693,15 @@
         <v>86967.3199</v>
       </c>
       <c r="G124" t="n">
-        <v>-294389.20675182</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4723,15 @@
         <v>10765</v>
       </c>
       <c r="G125" t="n">
-        <v>-283624.20675182</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4753,15 @@
         <v>53845.6842</v>
       </c>
       <c r="G126" t="n">
-        <v>-229778.52255182</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4783,15 @@
         <v>17911.0913</v>
       </c>
       <c r="G127" t="n">
-        <v>-211867.43125182</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4813,15 @@
         <v>10872.4376</v>
       </c>
       <c r="G128" t="n">
-        <v>-222739.86885182</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4843,15 @@
         <v>12625.6732</v>
       </c>
       <c r="G129" t="n">
-        <v>-235365.54205182</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4873,15 @@
         <v>9854.013300000001</v>
       </c>
       <c r="G130" t="n">
-        <v>-245219.55535182</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,22 +4903,15 @@
         <v>13000</v>
       </c>
       <c r="G131" t="n">
-        <v>-258219.55535182</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J131" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4742,26 +4933,15 @@
         <v>10253</v>
       </c>
       <c r="G132" t="n">
-        <v>-247966.55535182</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="J132" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4783,26 +4963,15 @@
         <v>2900</v>
       </c>
       <c r="G133" t="n">
-        <v>-250866.55535182</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="J133" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4824,26 +4993,15 @@
         <v>437.636</v>
       </c>
       <c r="G134" t="n">
-        <v>-250428.91935182</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="J134" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4865,26 +5023,15 @@
         <v>3000</v>
       </c>
       <c r="G135" t="n">
-        <v>-253428.91935182</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="J135" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
